--- a/experiments/ana-flavia-NCxHSD-NC-trim/sheets/relative-all_frequencies.xlsx
+++ b/experiments/ana-flavia-NCxHSD-NC-trim/sheets/relative-all_frequencies.xlsx
@@ -31,40 +31,40 @@
     <t>NC</t>
   </si>
   <si>
-    <t>210421121673</t>
-  </si>
-  <si>
-    <t>210421121674</t>
-  </si>
-  <si>
-    <t>210421121675</t>
-  </si>
-  <si>
-    <t>210421121676</t>
-  </si>
-  <si>
-    <t>210421121688</t>
-  </si>
-  <si>
-    <t>210421121689</t>
-  </si>
-  <si>
-    <t>210421121690</t>
-  </si>
-  <si>
-    <t>210421121698</t>
-  </si>
-  <si>
-    <t>210421121699</t>
-  </si>
-  <si>
-    <t>210421121700</t>
-  </si>
-  <si>
-    <t>210421121701</t>
-  </si>
-  <si>
-    <t>210421121702</t>
+    <t>S210421121673</t>
+  </si>
+  <si>
+    <t>S210421121674</t>
+  </si>
+  <si>
+    <t>S210421121675</t>
+  </si>
+  <si>
+    <t>S210421121676</t>
+  </si>
+  <si>
+    <t>S210421121688</t>
+  </si>
+  <si>
+    <t>S210421121689</t>
+  </si>
+  <si>
+    <t>S210421121690</t>
+  </si>
+  <si>
+    <t>S210421121698</t>
+  </si>
+  <si>
+    <t>S210421121699</t>
+  </si>
+  <si>
+    <t>S210421121700</t>
+  </si>
+  <si>
+    <t>S210421121701</t>
+  </si>
+  <si>
+    <t>S210421121702</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -502,16 +502,16 @@
     <t>[Eubacterium]_siraeum_group</t>
   </si>
   <si>
+    <t>Christensenellaceae_R-7_group</t>
+  </si>
+  <si>
+    <t>Incertae_Sedis</t>
+  </si>
+  <si>
+    <t>Burkholderia-Caballeronia-Paraburkholderia</t>
+  </si>
+  <si>
     <t>Blautia</t>
-  </si>
-  <si>
-    <t>Christensenellaceae_R-7_group</t>
-  </si>
-  <si>
-    <t>Incertae_Sedis</t>
-  </si>
-  <si>
-    <t>Burkholderia-Caballeronia-Paraburkholderia</t>
   </si>
   <si>
     <t>Colidextribacter</t>
@@ -1418,28 +1418,28 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.62323</v>
+        <v>0.63324</v>
       </c>
       <c r="C2">
         <v>0.13022</v>
       </c>
       <c r="D2">
-        <v>0.77873</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="E2">
-        <v>0.65318</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.74813</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78434</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.86955</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.39141</v>
+        <v>0.39152</v>
       </c>
       <c r="J2">
         <v>0.03476</v>
@@ -1451,7 +1451,7 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.21256</v>
+        <v>0.21248</v>
       </c>
       <c r="N2">
         <v>0.03294</v>
@@ -1468,31 +1468,31 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.31383</v>
+        <v>0.30548</v>
       </c>
       <c r="C3">
-        <v>0.79654</v>
+        <v>0.7965100000000001</v>
       </c>
       <c r="D3">
-        <v>0.16157</v>
+        <v>0.15596</v>
       </c>
       <c r="E3">
-        <v>0.31238</v>
+        <v>0.30957</v>
       </c>
       <c r="F3">
-        <v>0.20191</v>
+        <v>0.18123</v>
       </c>
       <c r="G3">
-        <v>0.05086</v>
+        <v>0.05143</v>
       </c>
       <c r="H3">
-        <v>0.10194</v>
+        <v>0.10097</v>
       </c>
       <c r="I3">
-        <v>0.47922</v>
+        <v>0.47908</v>
       </c>
       <c r="J3">
-        <v>0.93016</v>
+        <v>0.93014</v>
       </c>
       <c r="K3">
         <v>0.90112</v>
@@ -1501,13 +1501,13 @@
         <v>0.94143</v>
       </c>
       <c r="M3">
-        <v>0.61145</v>
+        <v>0.6112300000000001</v>
       </c>
       <c r="N3">
         <v>0.85382</v>
       </c>
       <c r="O3">
-        <v>0.90903</v>
+        <v>0.90894</v>
       </c>
       <c r="P3">
         <v>0.37724</v>
@@ -1518,28 +1518,28 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C4">
         <v>0.02892</v>
       </c>
       <c r="D4">
-        <v>0.03512</v>
+        <v>0.0339</v>
       </c>
       <c r="E4">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F4">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G4">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H4">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I4">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J4">
         <v>0.00349</v>
@@ -1568,31 +1568,31 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.02068</v>
+        <v>0.02014</v>
       </c>
       <c r="C5">
-        <v>0.01772</v>
+        <v>0.01775</v>
       </c>
       <c r="D5">
-        <v>0.02161</v>
+        <v>0.02087</v>
       </c>
       <c r="E5">
-        <v>0.00345</v>
+        <v>0.00341</v>
       </c>
       <c r="F5">
-        <v>0.04412</v>
+        <v>0.03984</v>
       </c>
       <c r="G5">
-        <v>0.01214</v>
+        <v>0.0121</v>
       </c>
       <c r="H5">
-        <v>0.01893</v>
+        <v>0.01875</v>
       </c>
       <c r="I5">
         <v>0.00669</v>
       </c>
       <c r="J5">
-        <v>0.0118</v>
+        <v>0.01182</v>
       </c>
       <c r="K5">
         <v>0.01406</v>
@@ -1601,13 +1601,13 @@
         <v>0.02285</v>
       </c>
       <c r="M5">
-        <v>0.12981</v>
+        <v>0.13014</v>
       </c>
       <c r="N5">
         <v>0.03602</v>
       </c>
       <c r="O5">
-        <v>0.02531</v>
+        <v>0.02541</v>
       </c>
       <c r="P5">
         <v>0.03146</v>
@@ -1618,19 +1618,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.00479</v>
+        <v>0.00466</v>
       </c>
       <c r="C6">
         <v>0.01834</v>
       </c>
       <c r="D6">
-        <v>0.00051</v>
+        <v>0.00049</v>
       </c>
       <c r="E6">
         <v>0.00013</v>
       </c>
       <c r="F6">
-        <v>0.00112</v>
+        <v>0.00101</v>
       </c>
       <c r="G6">
         <v>9.000000000000001E-05</v>
@@ -1639,7 +1639,7 @@
         <v>0.00046</v>
       </c>
       <c r="I6">
-        <v>0.02731</v>
+        <v>0.02732</v>
       </c>
       <c r="J6">
         <v>0.01417</v>
@@ -1651,7 +1651,7 @@
         <v>0.02762</v>
       </c>
       <c r="M6">
-        <v>0.02547</v>
+        <v>0.02546</v>
       </c>
       <c r="N6">
         <v>0.02355</v>
@@ -1668,13 +1668,13 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C7">
         <v>0.00796</v>
       </c>
       <c r="D7">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I7">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J7">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K7">
         <v>0.01536</v>
@@ -1718,25 +1718,25 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C8">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D8">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E8">
         <v>0.00024</v>
       </c>
       <c r="F8">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I8">
         <v>0.00029</v>
@@ -1768,19 +1768,19 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E9">
         <v>0.00025</v>
       </c>
       <c r="F9">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2028,28 +2028,28 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>0.62323</v>
+        <v>0.63324</v>
       </c>
       <c r="C2">
         <v>0.13022</v>
       </c>
       <c r="D2">
-        <v>0.77873</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="E2">
-        <v>0.65318</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.74813</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78434</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.86955</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.39141</v>
+        <v>0.39152</v>
       </c>
       <c r="J2">
         <v>0.03476</v>
@@ -2061,7 +2061,7 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.21256</v>
+        <v>0.21248</v>
       </c>
       <c r="N2">
         <v>0.03294</v>
@@ -2078,31 +2078,31 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>0.26501</v>
+        <v>0.25797</v>
       </c>
       <c r="C3">
-        <v>0.69934</v>
+        <v>0.69936</v>
       </c>
       <c r="D3">
-        <v>0.12802</v>
+        <v>0.12356</v>
       </c>
       <c r="E3">
-        <v>0.29967</v>
+        <v>0.297</v>
       </c>
       <c r="F3">
-        <v>0.1369</v>
+        <v>0.12253</v>
       </c>
       <c r="G3">
-        <v>0.03785</v>
+        <v>0.03845</v>
       </c>
       <c r="H3">
-        <v>0.07099</v>
+        <v>0.07031</v>
       </c>
       <c r="I3">
-        <v>0.42925</v>
+        <v>0.42936</v>
       </c>
       <c r="J3">
-        <v>0.8190499999999999</v>
+        <v>0.81903</v>
       </c>
       <c r="K3">
         <v>0.77654</v>
@@ -2111,13 +2111,13 @@
         <v>0.7654</v>
       </c>
       <c r="M3">
-        <v>0.4949</v>
+        <v>0.49471</v>
       </c>
       <c r="N3">
         <v>0.79765</v>
       </c>
       <c r="O3">
-        <v>0.8114</v>
+        <v>0.81131</v>
       </c>
       <c r="P3">
         <v>0.36726</v>
@@ -2128,31 +2128,31 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>0.04882</v>
+        <v>0.04751</v>
       </c>
       <c r="C4">
-        <v>0.09721</v>
+        <v>0.09715</v>
       </c>
       <c r="D4">
-        <v>0.03356</v>
+        <v>0.0324</v>
       </c>
       <c r="E4">
-        <v>0.01271</v>
+        <v>0.01256</v>
       </c>
       <c r="F4">
-        <v>0.06501</v>
+        <v>0.0587</v>
       </c>
       <c r="G4">
-        <v>0.01301</v>
+        <v>0.01297</v>
       </c>
       <c r="H4">
-        <v>0.03095</v>
+        <v>0.03065</v>
       </c>
       <c r="I4">
-        <v>0.04998</v>
+        <v>0.04971</v>
       </c>
       <c r="J4">
-        <v>0.11111</v>
+        <v>0.1111</v>
       </c>
       <c r="K4">
         <v>0.12458</v>
@@ -2161,13 +2161,13 @@
         <v>0.17603</v>
       </c>
       <c r="M4">
-        <v>0.11656</v>
+        <v>0.11651</v>
       </c>
       <c r="N4">
         <v>0.05617</v>
       </c>
       <c r="O4">
-        <v>0.09764</v>
+        <v>0.09762999999999999</v>
       </c>
       <c r="P4">
         <v>0.00997</v>
@@ -2178,28 +2178,28 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C5">
         <v>0.02892</v>
       </c>
       <c r="D5">
-        <v>0.03512</v>
+        <v>0.0339</v>
       </c>
       <c r="E5">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F5">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G5">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H5">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I5">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J5">
         <v>0.00349</v>
@@ -2228,31 +2228,31 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>0.01712</v>
+        <v>0.01668</v>
       </c>
       <c r="C6">
-        <v>0.01703</v>
+        <v>0.01707</v>
       </c>
       <c r="D6">
-        <v>0.01715</v>
+        <v>0.01656</v>
       </c>
       <c r="E6">
-        <v>0.00345</v>
+        <v>0.00341</v>
       </c>
       <c r="F6">
-        <v>0.0433</v>
+        <v>0.03909</v>
       </c>
       <c r="G6">
-        <v>0.01214</v>
+        <v>0.0121</v>
       </c>
       <c r="H6">
-        <v>0.0069</v>
+        <v>0.00684</v>
       </c>
       <c r="I6">
         <v>0.00663</v>
       </c>
       <c r="J6">
-        <v>0.01149</v>
+        <v>0.01151</v>
       </c>
       <c r="K6">
         <v>0.01375</v>
@@ -2261,13 +2261,13 @@
         <v>0.02191</v>
       </c>
       <c r="M6">
-        <v>0.12274</v>
+        <v>0.12306</v>
       </c>
       <c r="N6">
         <v>0.03537</v>
       </c>
       <c r="O6">
-        <v>0.02339</v>
+        <v>0.02349</v>
       </c>
       <c r="P6">
         <v>0.03146</v>
@@ -2278,25 +2278,25 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>0.00356</v>
+        <v>0.00347</v>
       </c>
       <c r="C7">
         <v>0.00069</v>
       </c>
       <c r="D7">
-        <v>0.00447</v>
+        <v>0.00431</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.00083</v>
+        <v>0.00075</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01203</v>
+        <v>0.01191</v>
       </c>
       <c r="I7">
         <v>6E-05</v>
@@ -2311,7 +2311,7 @@
         <v>0.0009300000000000001</v>
       </c>
       <c r="M7">
-        <v>0.00708</v>
+        <v>0.00707</v>
       </c>
       <c r="N7">
         <v>0.00065</v>
@@ -2328,19 +2328,19 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>0.00263</v>
+        <v>0.00256</v>
       </c>
       <c r="C8">
         <v>0.01018</v>
       </c>
       <c r="D8">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G8">
         <v>1E-05</v>
@@ -2361,7 +2361,7 @@
         <v>0.0136</v>
       </c>
       <c r="M8">
-        <v>0.01043</v>
+        <v>0.01042</v>
       </c>
       <c r="N8">
         <v>0.00461</v>
@@ -2378,13 +2378,13 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C9">
         <v>0.00796</v>
       </c>
       <c r="D9">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I9">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J9">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K9">
         <v>0.01536</v>
@@ -2428,19 +2428,19 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>0.00216</v>
+        <v>0.0021</v>
       </c>
       <c r="C10">
         <v>0.008160000000000001</v>
       </c>
       <c r="D10">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="E10">
         <v>0.00013</v>
       </c>
       <c r="F10">
-        <v>0.00032</v>
+        <v>0.00029</v>
       </c>
       <c r="G10">
         <v>9.000000000000001E-05</v>
@@ -2449,7 +2449,7 @@
         <v>0.00037</v>
       </c>
       <c r="I10">
-        <v>0.008189999999999999</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="J10">
         <v>0.00334</v>
@@ -2467,7 +2467,7 @@
         <v>0.01894</v>
       </c>
       <c r="O10">
-        <v>0.01852</v>
+        <v>0.01851</v>
       </c>
       <c r="P10">
         <v>0.00332</v>
@@ -2478,25 +2478,25 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C11">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D11">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E11">
         <v>0.00024</v>
       </c>
       <c r="F11">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I11">
         <v>0.00029</v>
@@ -2528,19 +2528,19 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E12">
         <v>0.00025</v>
       </c>
       <c r="F12">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2788,28 +2788,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.6232</v>
+        <v>0.6332</v>
       </c>
       <c r="C2">
         <v>0.13007</v>
       </c>
       <c r="D2">
-        <v>0.77873</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="E2">
-        <v>0.65318</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.74813</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78434</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.86955</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.39141</v>
+        <v>0.39152</v>
       </c>
       <c r="J2">
         <v>0.03476</v>
@@ -2821,7 +2821,7 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.21256</v>
+        <v>0.21248</v>
       </c>
       <c r="N2">
         <v>0.03294</v>
@@ -2838,10 +2838,10 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.07098</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="C3">
-        <v>0.29598</v>
+        <v>0.29599</v>
       </c>
       <c r="D3">
         <v>1E-05</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06038</v>
+        <v>0.06039</v>
       </c>
       <c r="J3">
-        <v>0.43368</v>
+        <v>0.43367</v>
       </c>
       <c r="K3">
         <v>0.23543</v>
@@ -2871,13 +2871,13 @@
         <v>0.40233</v>
       </c>
       <c r="M3">
-        <v>0.01877</v>
+        <v>0.01876</v>
       </c>
       <c r="N3">
         <v>0.017</v>
       </c>
       <c r="O3">
-        <v>0.65996</v>
+        <v>0.6599</v>
       </c>
       <c r="P3">
         <v>0.01509</v>
@@ -2888,25 +2888,25 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>0.0557</v>
+        <v>0.05423</v>
       </c>
       <c r="C4">
         <v>0.11294</v>
       </c>
       <c r="D4">
-        <v>0.03765</v>
+        <v>0.03635</v>
       </c>
       <c r="E4">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="F4">
-        <v>0.11617</v>
+        <v>0.10488</v>
       </c>
       <c r="G4">
         <v>0.00173</v>
       </c>
       <c r="H4">
-        <v>0.01369</v>
+        <v>0.01356</v>
       </c>
       <c r="I4">
         <v>0.01686</v>
@@ -2921,7 +2921,7 @@
         <v>0.16814</v>
       </c>
       <c r="M4">
-        <v>0.01698</v>
+        <v>0.01697</v>
       </c>
       <c r="N4">
         <v>0.01902</v>
@@ -2938,28 +2938,28 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.05141</v>
+        <v>0.05002</v>
       </c>
       <c r="C5">
         <v>0.04918</v>
       </c>
       <c r="D5">
-        <v>0.05211</v>
+        <v>0.05027</v>
       </c>
       <c r="E5">
-        <v>0.19087</v>
+        <v>0.18947</v>
       </c>
       <c r="F5">
-        <v>0.01628</v>
+        <v>0.01363</v>
       </c>
       <c r="G5">
-        <v>0.02144</v>
+        <v>0.02209</v>
       </c>
       <c r="H5">
-        <v>0.01831</v>
+        <v>0.01814</v>
       </c>
       <c r="I5">
-        <v>0.02345</v>
+        <v>0.02346</v>
       </c>
       <c r="J5">
         <v>0.05213</v>
@@ -2971,7 +2971,7 @@
         <v>0.05213</v>
       </c>
       <c r="M5">
-        <v>0.10039</v>
+        <v>0.10036</v>
       </c>
       <c r="N5">
         <v>0.13557</v>
@@ -2988,28 +2988,28 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>0.04891</v>
+        <v>0.04762</v>
       </c>
       <c r="C6">
         <v>0.10731</v>
       </c>
       <c r="D6">
-        <v>0.03049</v>
+        <v>0.02944</v>
       </c>
       <c r="E6">
-        <v>0.09478</v>
+        <v>0.09368</v>
       </c>
       <c r="F6">
-        <v>0.00373</v>
+        <v>0.00336</v>
       </c>
       <c r="G6">
-        <v>0.01119</v>
+        <v>0.01116</v>
       </c>
       <c r="H6">
-        <v>0.02531</v>
+        <v>0.02507</v>
       </c>
       <c r="I6">
-        <v>0.07704</v>
+        <v>0.07706</v>
       </c>
       <c r="J6">
         <v>0.11986</v>
@@ -3021,13 +3021,13 @@
         <v>0.02897</v>
       </c>
       <c r="M6">
-        <v>0.04848</v>
+        <v>0.04847</v>
       </c>
       <c r="N6">
         <v>0.27519</v>
       </c>
       <c r="O6">
-        <v>0.04258</v>
+        <v>0.04257</v>
       </c>
       <c r="P6">
         <v>0.16752</v>
@@ -3038,28 +3038,28 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C7">
         <v>0.02892</v>
       </c>
       <c r="D7">
-        <v>0.03512</v>
+        <v>0.0339</v>
       </c>
       <c r="E7">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F7">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G7">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H7">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I7">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J7">
         <v>0.00349</v>
@@ -3088,16 +3088,16 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.03246</v>
+        <v>0.0316</v>
       </c>
       <c r="C8">
         <v>0.12094</v>
       </c>
       <c r="D8">
-        <v>0.00455</v>
+        <v>0.00439</v>
       </c>
       <c r="E8">
-        <v>0.00574</v>
+        <v>0.00568</v>
       </c>
       <c r="F8">
         <v>4E-05</v>
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.009690000000000001</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I8">
-        <v>0.23771</v>
+        <v>0.23777</v>
       </c>
       <c r="J8">
         <v>0.05709</v>
@@ -3121,7 +3121,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M8">
-        <v>0.28026</v>
+        <v>0.28015</v>
       </c>
       <c r="N8">
         <v>0.26807</v>
@@ -3138,28 +3138,28 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>0.0244</v>
+        <v>0.02376</v>
       </c>
       <c r="C9">
         <v>0.01939</v>
       </c>
       <c r="D9">
-        <v>0.02598</v>
+        <v>0.02509</v>
       </c>
       <c r="E9">
-        <v>0.01022</v>
+        <v>0.0101</v>
       </c>
       <c r="F9">
-        <v>0.05163</v>
+        <v>0.04662</v>
       </c>
       <c r="G9">
-        <v>0.00826</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="H9">
-        <v>0.02366</v>
+        <v>0.02344</v>
       </c>
       <c r="I9">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="J9">
         <v>0.01894</v>
@@ -3188,28 +3188,28 @@
         <v>49</v>
       </c>
       <c r="B10">
-        <v>0.02045</v>
+        <v>0.01991</v>
       </c>
       <c r="C10">
         <v>0.07338</v>
       </c>
       <c r="D10">
-        <v>0.00376</v>
+        <v>0.00363</v>
       </c>
       <c r="E10">
         <v>0.00066</v>
       </c>
       <c r="F10">
-        <v>0.00713</v>
+        <v>0.00644</v>
       </c>
       <c r="G10">
         <v>0.00063</v>
       </c>
       <c r="H10">
-        <v>0.00442</v>
+        <v>0.00438</v>
       </c>
       <c r="I10">
-        <v>0.04558</v>
+        <v>0.04559</v>
       </c>
       <c r="J10">
         <v>0.08906</v>
@@ -3221,13 +3221,13 @@
         <v>0.13241</v>
       </c>
       <c r="M10">
-        <v>0.07291</v>
+        <v>0.07289</v>
       </c>
       <c r="N10">
         <v>0.03901</v>
       </c>
       <c r="O10">
-        <v>0.08926000000000001</v>
+        <v>0.08925</v>
       </c>
       <c r="P10">
         <v>0.00716</v>
@@ -3238,31 +3238,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>0.01307</v>
+        <v>0.01273</v>
       </c>
       <c r="C11">
-        <v>0.00746</v>
+        <v>0.00749</v>
       </c>
       <c r="D11">
-        <v>0.01484</v>
+        <v>0.01433</v>
       </c>
       <c r="E11">
-        <v>0.00073</v>
+        <v>0.00072</v>
       </c>
       <c r="F11">
-        <v>0.04179</v>
+        <v>0.03773</v>
       </c>
       <c r="G11">
-        <v>0.00511</v>
+        <v>0.0051</v>
       </c>
       <c r="H11">
-        <v>0.00657</v>
+        <v>0.00652</v>
       </c>
       <c r="I11">
         <v>0.0027</v>
       </c>
       <c r="J11">
-        <v>0.00518</v>
+        <v>0.0052</v>
       </c>
       <c r="K11">
         <v>0.00272</v>
@@ -3271,13 +3271,13 @@
         <v>0.00634</v>
       </c>
       <c r="M11">
-        <v>0.08498</v>
+        <v>0.08531999999999999</v>
       </c>
       <c r="N11">
         <v>0.00518</v>
       </c>
       <c r="O11">
-        <v>0.01134</v>
+        <v>0.01144</v>
       </c>
       <c r="P11">
         <v>0.01304</v>
@@ -3288,25 +3288,25 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>0.00338</v>
+        <v>0.00329</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00445</v>
+        <v>0.0043</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00077</v>
+        <v>0.00069</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.01203</v>
+        <v>0.01191</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>52</v>
       </c>
       <c r="B13">
-        <v>0.00329</v>
+        <v>0.00321</v>
       </c>
       <c r="C13">
         <v>0.00685</v>
       </c>
       <c r="D13">
-        <v>0.00217</v>
+        <v>0.0021</v>
       </c>
       <c r="E13">
-        <v>0.00251</v>
+        <v>0.00248</v>
       </c>
       <c r="F13">
-        <v>0.00125</v>
+        <v>0.00113</v>
       </c>
       <c r="G13">
-        <v>0.007</v>
+        <v>0.00698</v>
       </c>
       <c r="H13">
         <v>0.00027</v>
@@ -3388,25 +3388,25 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>0.00282</v>
+        <v>0.00275</v>
       </c>
       <c r="C14">
         <v>0.001</v>
       </c>
       <c r="D14">
-        <v>0.0034</v>
+        <v>0.00328</v>
       </c>
       <c r="E14">
-        <v>0.00183</v>
+        <v>0.00181</v>
       </c>
       <c r="F14">
-        <v>0.00477</v>
+        <v>0.00431</v>
       </c>
       <c r="G14">
-        <v>0.00412</v>
+        <v>0.00411</v>
       </c>
       <c r="H14">
-        <v>0.00283</v>
+        <v>0.0028</v>
       </c>
       <c r="I14">
         <v>0.00086</v>
@@ -3438,19 +3438,19 @@
         <v>54</v>
       </c>
       <c r="B15">
-        <v>0.00257</v>
+        <v>0.0025</v>
       </c>
       <c r="C15">
         <v>0.00993</v>
       </c>
       <c r="D15">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0.00769</v>
       </c>
       <c r="M15">
-        <v>0.01043</v>
+        <v>0.01042</v>
       </c>
       <c r="N15">
         <v>0.00461</v>
@@ -3488,28 +3488,28 @@
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.00256</v>
+        <v>0.00249</v>
       </c>
       <c r="C16">
         <v>0.00814</v>
       </c>
       <c r="D16">
-        <v>0.0008</v>
+        <v>0.00077</v>
       </c>
       <c r="E16">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00296</v>
+        <v>0.00295</v>
       </c>
       <c r="H16">
         <v>0.00028</v>
       </c>
       <c r="I16">
-        <v>0.0078</v>
+        <v>0.00781</v>
       </c>
       <c r="J16">
         <v>0.00402</v>
@@ -3538,13 +3538,13 @@
         <v>56</v>
       </c>
       <c r="B17">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C17">
         <v>0.00796</v>
       </c>
       <c r="D17">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I17">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J17">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K17">
         <v>0.01536</v>
@@ -3588,19 +3588,19 @@
         <v>57</v>
       </c>
       <c r="B18">
-        <v>0.00216</v>
+        <v>0.0021</v>
       </c>
       <c r="C18">
         <v>0.008160000000000001</v>
       </c>
       <c r="D18">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="E18">
         <v>0.00013</v>
       </c>
       <c r="F18">
-        <v>0.00032</v>
+        <v>0.00029</v>
       </c>
       <c r="G18">
         <v>9.000000000000001E-05</v>
@@ -3609,7 +3609,7 @@
         <v>0.00037</v>
       </c>
       <c r="I18">
-        <v>0.008189999999999999</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="J18">
         <v>0.00334</v>
@@ -3627,7 +3627,7 @@
         <v>0.01894</v>
       </c>
       <c r="O18">
-        <v>0.01852</v>
+        <v>0.01851</v>
       </c>
       <c r="P18">
         <v>0.00332</v>
@@ -3638,25 +3638,25 @@
         <v>58</v>
       </c>
       <c r="B19">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C19">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D19">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E19">
         <v>0.00024</v>
       </c>
       <c r="F19">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I19">
         <v>0.00029</v>
@@ -3688,25 +3688,25 @@
         <v>59</v>
       </c>
       <c r="B20">
-        <v>0.00119</v>
+        <v>0.00116</v>
       </c>
       <c r="C20">
         <v>0.00013</v>
       </c>
       <c r="D20">
-        <v>0.00152</v>
+        <v>0.00147</v>
       </c>
       <c r="E20">
-        <v>0.00238</v>
+        <v>0.00235</v>
       </c>
       <c r="F20">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G20">
         <v>4E-05</v>
       </c>
       <c r="H20">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="I20">
         <v>0.00031</v>
@@ -3738,19 +3738,19 @@
         <v>60</v>
       </c>
       <c r="B21">
-        <v>0.00116</v>
+        <v>0.00113</v>
       </c>
       <c r="C21">
         <v>0.00423</v>
       </c>
       <c r="D21">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="E21">
         <v>3E-05</v>
       </c>
       <c r="F21">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G21">
         <v>0.00028</v>
@@ -3771,7 +3771,7 @@
         <v>0.04154</v>
       </c>
       <c r="M21">
-        <v>0.03001</v>
+        <v>0.03</v>
       </c>
       <c r="N21">
         <v>0.00372</v>
@@ -3788,10 +3788,10 @@
         <v>61</v>
       </c>
       <c r="B22">
-        <v>0.00082</v>
+        <v>0.00078</v>
       </c>
       <c r="C22">
-        <v>0.00337</v>
+        <v>0.00331</v>
       </c>
       <c r="D22">
         <v>1E-05</v>
@@ -3809,7 +3809,7 @@
         <v>3E-05</v>
       </c>
       <c r="I22">
-        <v>0.00359</v>
+        <v>0.00331</v>
       </c>
       <c r="J22">
         <v>0.00156</v>
@@ -3821,7 +3821,7 @@
         <v>0.00426</v>
       </c>
       <c r="M22">
-        <v>0.02696</v>
+        <v>0.02695</v>
       </c>
       <c r="N22">
         <v>0.01222</v>
@@ -3838,7 +3838,7 @@
         <v>62</v>
       </c>
       <c r="B23">
-        <v>0.0007</v>
+        <v>0.00068</v>
       </c>
       <c r="C23">
         <v>0.00267</v>
@@ -3850,7 +3850,7 @@
         <v>0.0001</v>
       </c>
       <c r="F23">
-        <v>0.00021</v>
+        <v>0.00019</v>
       </c>
       <c r="G23">
         <v>2E-05</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.02808</v>
+        <v>0.02807</v>
       </c>
       <c r="N23">
         <v>0.0009700000000000001</v>
@@ -3888,19 +3888,19 @@
         <v>63</v>
       </c>
       <c r="B24">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="C24">
         <v>0.00017</v>
       </c>
       <c r="D24">
-        <v>0.00066</v>
+        <v>0.00063</v>
       </c>
       <c r="E24">
-        <v>0.00182</v>
+        <v>0.0018</v>
       </c>
       <c r="F24">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G24">
         <v>0.00022</v>
@@ -3938,19 +3938,19 @@
         <v>64</v>
       </c>
       <c r="B25">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C25">
         <v>2E-05</v>
       </c>
       <c r="D25">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0.0009300000000000001</v>
       </c>
       <c r="M26">
-        <v>0.00611</v>
+        <v>0.0061</v>
       </c>
       <c r="N26">
         <v>0.00065</v>
@@ -4038,19 +4038,19 @@
         <v>66</v>
       </c>
       <c r="B27">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E27">
         <v>0.00025</v>
       </c>
       <c r="F27">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>67</v>
       </c>
       <c r="B28">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="C28">
         <v>6E-05</v>
@@ -4097,7 +4097,7 @@
         <v>5E-05</v>
       </c>
       <c r="E28">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="F28">
         <v>5E-05</v>
@@ -4288,7 +4288,7 @@
         <v>71</v>
       </c>
       <c r="B32">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C32">
         <v>0.00015</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>75</v>
       </c>
       <c r="B36">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="C36">
         <v>0.00011</v>
@@ -4748,28 +4748,28 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>0.37334</v>
+        <v>0.36365</v>
       </c>
       <c r="C2">
-        <v>0.1238</v>
+        <v>0.12381</v>
       </c>
       <c r="D2">
-        <v>0.45204</v>
+        <v>0.43669</v>
       </c>
       <c r="E2">
-        <v>0.41904</v>
+        <v>0.41419</v>
       </c>
       <c r="F2">
-        <v>0.31323</v>
+        <v>0.28281</v>
       </c>
       <c r="G2">
-        <v>0.47918</v>
+        <v>0.47786</v>
       </c>
       <c r="H2">
-        <v>0.56492</v>
+        <v>0.5602200000000001</v>
       </c>
       <c r="I2">
-        <v>0.37564</v>
+        <v>0.37574</v>
       </c>
       <c r="J2">
         <v>0.03242</v>
@@ -4781,13 +4781,13 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.16668</v>
+        <v>0.16662</v>
       </c>
       <c r="N2">
         <v>0.03043</v>
       </c>
       <c r="O2">
-        <v>0.01954</v>
+        <v>0.01953</v>
       </c>
       <c r="P2">
         <v>0.56266</v>
@@ -4798,25 +4798,25 @@
         <v>80</v>
       </c>
       <c r="B3">
-        <v>0.10968</v>
+        <v>0.13308</v>
       </c>
       <c r="C3">
         <v>0.00183</v>
       </c>
       <c r="D3">
-        <v>0.1437</v>
+        <v>0.17304</v>
       </c>
       <c r="E3">
-        <v>0.10444</v>
+        <v>0.114</v>
       </c>
       <c r="F3">
-        <v>0.32132</v>
+        <v>0.38831</v>
       </c>
       <c r="G3">
-        <v>0.06494999999999999</v>
+        <v>0.06686</v>
       </c>
       <c r="H3">
-        <v>0.06666</v>
+        <v>0.07488</v>
       </c>
       <c r="I3">
         <v>0.00262</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.03225</v>
+        <v>0.03224</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -4848,25 +4848,25 @@
         <v>81</v>
       </c>
       <c r="B4">
-        <v>0.10013</v>
+        <v>0.09748999999999999</v>
       </c>
       <c r="C4">
         <v>0.00324</v>
       </c>
       <c r="D4">
-        <v>0.1307</v>
+        <v>0.12618</v>
       </c>
       <c r="E4">
-        <v>0.09667000000000001</v>
+        <v>0.09555</v>
       </c>
       <c r="F4">
-        <v>0.00516</v>
+        <v>0.00466</v>
       </c>
       <c r="G4">
-        <v>0.21727</v>
+        <v>0.21665</v>
       </c>
       <c r="H4">
-        <v>0.20394</v>
+        <v>0.20199</v>
       </c>
       <c r="I4">
         <v>0.009220000000000001</v>
@@ -4898,10 +4898,10 @@
         <v>82</v>
       </c>
       <c r="B5">
-        <v>0.07098</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="C5">
-        <v>0.29598</v>
+        <v>0.29599</v>
       </c>
       <c r="D5">
         <v>1E-05</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4919,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06038</v>
+        <v>0.06039</v>
       </c>
       <c r="J5">
-        <v>0.43368</v>
+        <v>0.43367</v>
       </c>
       <c r="K5">
         <v>0.23543</v>
@@ -4931,13 +4931,13 @@
         <v>0.40233</v>
       </c>
       <c r="M5">
-        <v>0.01877</v>
+        <v>0.01876</v>
       </c>
       <c r="N5">
         <v>0.017</v>
       </c>
       <c r="O5">
-        <v>0.65996</v>
+        <v>0.6599</v>
       </c>
       <c r="P5">
         <v>0.01509</v>
@@ -4948,31 +4948,31 @@
         <v>83</v>
       </c>
       <c r="B6">
-        <v>0.05519</v>
+        <v>0.05373</v>
       </c>
       <c r="C6">
         <v>0.11216</v>
       </c>
       <c r="D6">
-        <v>0.03722</v>
+        <v>0.03594</v>
       </c>
       <c r="E6">
-        <v>0.00252</v>
+        <v>0.00249</v>
       </c>
       <c r="F6">
-        <v>0.11617</v>
+        <v>0.10488</v>
       </c>
       <c r="G6">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="H6">
-        <v>0.01306</v>
+        <v>0.01293</v>
       </c>
       <c r="I6">
-        <v>0.01489</v>
+        <v>0.0149</v>
       </c>
       <c r="J6">
-        <v>0.15103</v>
+        <v>0.15102</v>
       </c>
       <c r="K6">
         <v>0.21188</v>
@@ -4981,13 +4981,13 @@
         <v>0.16814</v>
       </c>
       <c r="M6">
-        <v>0.01698</v>
+        <v>0.01697</v>
       </c>
       <c r="N6">
         <v>0.01773</v>
       </c>
       <c r="O6">
-        <v>0.05604</v>
+        <v>0.05603</v>
       </c>
       <c r="P6">
         <v>0.00818</v>
@@ -4998,28 +4998,28 @@
         <v>84</v>
       </c>
       <c r="B7">
-        <v>0.05136</v>
+        <v>0.04997</v>
       </c>
       <c r="C7">
         <v>0.04918</v>
       </c>
       <c r="D7">
-        <v>0.05205</v>
+        <v>0.05021</v>
       </c>
       <c r="E7">
-        <v>0.19087</v>
+        <v>0.18947</v>
       </c>
       <c r="F7">
-        <v>0.01622</v>
+        <v>0.01358</v>
       </c>
       <c r="G7">
-        <v>0.02144</v>
+        <v>0.02209</v>
       </c>
       <c r="H7">
-        <v>0.01818</v>
+        <v>0.018</v>
       </c>
       <c r="I7">
-        <v>0.02345</v>
+        <v>0.02346</v>
       </c>
       <c r="J7">
         <v>0.05213</v>
@@ -5031,7 +5031,7 @@
         <v>0.05213</v>
       </c>
       <c r="M7">
-        <v>0.10039</v>
+        <v>0.10036</v>
       </c>
       <c r="N7">
         <v>0.13557</v>
@@ -5048,28 +5048,28 @@
         <v>85</v>
       </c>
       <c r="B8">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C8">
         <v>0.02892</v>
       </c>
       <c r="D8">
-        <v>0.03512</v>
+        <v>0.0339</v>
       </c>
       <c r="E8">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F8">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G8">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H8">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I8">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J8">
         <v>0.00349</v>
@@ -5098,16 +5098,16 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.03246</v>
+        <v>0.0316</v>
       </c>
       <c r="C9">
         <v>0.12094</v>
       </c>
       <c r="D9">
-        <v>0.00455</v>
+        <v>0.00439</v>
       </c>
       <c r="E9">
-        <v>0.00574</v>
+        <v>0.00568</v>
       </c>
       <c r="F9">
         <v>4E-05</v>
@@ -5116,10 +5116,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.009690000000000001</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I9">
-        <v>0.23771</v>
+        <v>0.23777</v>
       </c>
       <c r="J9">
         <v>0.05709</v>
@@ -5131,7 +5131,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M9">
-        <v>0.28026</v>
+        <v>0.28015</v>
       </c>
       <c r="N9">
         <v>0.26807</v>
@@ -5148,31 +5148,31 @@
         <v>86</v>
       </c>
       <c r="B10">
-        <v>0.02434</v>
+        <v>0.0237</v>
       </c>
       <c r="C10">
-        <v>0.07903</v>
+        <v>0.07904</v>
       </c>
       <c r="D10">
-        <v>0.00709</v>
+        <v>0.00685</v>
       </c>
       <c r="E10">
-        <v>0.02123</v>
+        <v>0.02098</v>
       </c>
       <c r="F10">
-        <v>0.0005</v>
+        <v>0.00045</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.00793</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="I10">
-        <v>0.03752</v>
+        <v>0.03753</v>
       </c>
       <c r="J10">
-        <v>0.11631</v>
+        <v>0.1163</v>
       </c>
       <c r="K10">
         <v>0.13632</v>
@@ -5198,28 +5198,28 @@
         <v>87</v>
       </c>
       <c r="B11">
-        <v>0.02372</v>
+        <v>0.0231</v>
       </c>
       <c r="C11">
         <v>0.01874</v>
       </c>
       <c r="D11">
-        <v>0.02529</v>
+        <v>0.02442</v>
       </c>
       <c r="E11">
-        <v>0.0098</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="F11">
-        <v>0.05015</v>
+        <v>0.04528</v>
       </c>
       <c r="G11">
-        <v>0.00727</v>
+        <v>0.00725</v>
       </c>
       <c r="H11">
-        <v>0.02359</v>
+        <v>0.02336</v>
       </c>
       <c r="I11">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="J11">
         <v>0.01879</v>
@@ -5248,25 +5248,25 @@
         <v>88</v>
       </c>
       <c r="B12">
-        <v>0.02343</v>
+        <v>0.02281</v>
       </c>
       <c r="C12">
         <v>0.00028</v>
       </c>
       <c r="D12">
-        <v>0.03073</v>
+        <v>0.02967</v>
       </c>
       <c r="E12">
-        <v>0.00668</v>
+        <v>0.00661</v>
       </c>
       <c r="F12">
-        <v>0.08179</v>
+        <v>0.07385</v>
       </c>
       <c r="G12">
-        <v>0.02293</v>
+        <v>0.02287</v>
       </c>
       <c r="H12">
-        <v>0.00822</v>
+        <v>0.00814</v>
       </c>
       <c r="I12">
         <v>0.0006400000000000001</v>
@@ -5298,28 +5298,28 @@
         <v>89</v>
       </c>
       <c r="B13">
-        <v>0.01989</v>
+        <v>0.01936</v>
       </c>
       <c r="C13">
         <v>0.07327</v>
       </c>
       <c r="D13">
-        <v>0.00305</v>
+        <v>0.00295</v>
       </c>
       <c r="E13">
         <v>5E-05</v>
       </c>
       <c r="F13">
-        <v>0.00589</v>
+        <v>0.00532</v>
       </c>
       <c r="G13">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="H13">
-        <v>0.00384</v>
+        <v>0.00381</v>
       </c>
       <c r="I13">
-        <v>0.04558</v>
+        <v>0.04559</v>
       </c>
       <c r="J13">
         <v>0.08906</v>
@@ -5331,13 +5331,13 @@
         <v>0.13085</v>
       </c>
       <c r="M13">
-        <v>0.07217</v>
+        <v>0.07214</v>
       </c>
       <c r="N13">
         <v>0.0378</v>
       </c>
       <c r="O13">
-        <v>0.08926000000000001</v>
+        <v>0.08925</v>
       </c>
       <c r="P13">
         <v>0.00537</v>
@@ -5348,25 +5348,25 @@
         <v>90</v>
       </c>
       <c r="B14">
-        <v>0.01662</v>
+        <v>0.01618</v>
       </c>
       <c r="C14">
         <v>0.00091</v>
       </c>
       <c r="D14">
-        <v>0.02157</v>
+        <v>0.02083</v>
       </c>
       <c r="E14">
-        <v>0.02635</v>
+        <v>0.02604</v>
       </c>
       <c r="F14">
-        <v>0.02663</v>
+        <v>0.02404</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02582</v>
+        <v>0.02557</v>
       </c>
       <c r="I14">
         <v>0.00329</v>
@@ -5398,28 +5398,28 @@
         <v>91</v>
       </c>
       <c r="B15">
-        <v>0.01522</v>
+        <v>0.01481</v>
       </c>
       <c r="C15">
         <v>0.01331</v>
       </c>
       <c r="D15">
-        <v>0.01582</v>
+        <v>0.01527</v>
       </c>
       <c r="E15">
-        <v>0.05833</v>
+        <v>0.05766</v>
       </c>
       <c r="F15">
-        <v>0.00309</v>
+        <v>0.00279</v>
       </c>
       <c r="G15">
-        <v>0.00847</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="H15">
-        <v>0.00579</v>
+        <v>0.00574</v>
       </c>
       <c r="I15">
-        <v>0.0153</v>
+        <v>0.01531</v>
       </c>
       <c r="J15">
         <v>0.00209</v>
@@ -5448,25 +5448,25 @@
         <v>92</v>
       </c>
       <c r="B16">
-        <v>0.01122</v>
+        <v>0.01092</v>
       </c>
       <c r="C16">
         <v>0.00034</v>
       </c>
       <c r="D16">
-        <v>0.01465</v>
+        <v>0.01414</v>
       </c>
       <c r="E16">
         <v>0.00062</v>
       </c>
       <c r="F16">
-        <v>0.04136</v>
+        <v>0.03735</v>
       </c>
       <c r="G16">
-        <v>0.00498</v>
+        <v>0.00497</v>
       </c>
       <c r="H16">
-        <v>0.00648</v>
+        <v>0.00642</v>
       </c>
       <c r="I16">
         <v>0.00106</v>
@@ -5498,28 +5498,28 @@
         <v>93</v>
       </c>
       <c r="B17">
-        <v>0.00764</v>
+        <v>0.00744</v>
       </c>
       <c r="C17">
         <v>0.0136</v>
       </c>
       <c r="D17">
-        <v>0.00576</v>
+        <v>0.00556</v>
       </c>
       <c r="E17">
-        <v>0.01355</v>
+        <v>0.0134</v>
       </c>
       <c r="F17">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="G17">
-        <v>0.00272</v>
+        <v>0.00271</v>
       </c>
       <c r="H17">
-        <v>0.00734</v>
+        <v>0.00727</v>
       </c>
       <c r="I17">
-        <v>0.0219</v>
+        <v>0.02191</v>
       </c>
       <c r="J17">
         <v>0.0008</v>
@@ -5548,25 +5548,25 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <v>0.00372</v>
+        <v>0.00362</v>
       </c>
       <c r="C18">
         <v>0.00123</v>
       </c>
       <c r="D18">
-        <v>0.0045</v>
+        <v>0.00435</v>
       </c>
       <c r="E18">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="F18">
-        <v>0.00091</v>
+        <v>0.00082</v>
       </c>
       <c r="G18">
         <v>3E-05</v>
       </c>
       <c r="H18">
-        <v>0.01203</v>
+        <v>0.01191</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5598,22 +5598,22 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>0.00326</v>
+        <v>0.00318</v>
       </c>
       <c r="C19">
         <v>0.00685</v>
       </c>
       <c r="D19">
-        <v>0.00213</v>
+        <v>0.00206</v>
       </c>
       <c r="E19">
-        <v>0.00251</v>
+        <v>0.00248</v>
       </c>
       <c r="F19">
-        <v>0.00125</v>
+        <v>0.00113</v>
       </c>
       <c r="G19">
-        <v>0.00678</v>
+        <v>0.00677</v>
       </c>
       <c r="H19">
         <v>0.00027</v>
@@ -5648,25 +5648,25 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>0.00284</v>
+        <v>0.00277</v>
       </c>
       <c r="C20">
         <v>0.0011</v>
       </c>
       <c r="D20">
-        <v>0.0034</v>
+        <v>0.00328</v>
       </c>
       <c r="E20">
-        <v>0.00183</v>
+        <v>0.00181</v>
       </c>
       <c r="F20">
-        <v>0.00477</v>
+        <v>0.00431</v>
       </c>
       <c r="G20">
-        <v>0.00412</v>
+        <v>0.00411</v>
       </c>
       <c r="H20">
-        <v>0.00283</v>
+        <v>0.0028</v>
       </c>
       <c r="I20">
         <v>0.00102</v>
@@ -5698,19 +5698,19 @@
         <v>95</v>
       </c>
       <c r="B21">
-        <v>0.00257</v>
+        <v>0.0025</v>
       </c>
       <c r="C21">
         <v>0.00993</v>
       </c>
       <c r="D21">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5731,7 +5731,7 @@
         <v>0.00769</v>
       </c>
       <c r="M21">
-        <v>0.01043</v>
+        <v>0.01042</v>
       </c>
       <c r="N21">
         <v>0.00461</v>
@@ -5748,28 +5748,28 @@
         <v>96</v>
       </c>
       <c r="B22">
-        <v>0.00256</v>
+        <v>0.00249</v>
       </c>
       <c r="C22">
         <v>0.00814</v>
       </c>
       <c r="D22">
-        <v>0.0008</v>
+        <v>0.00077</v>
       </c>
       <c r="E22">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00296</v>
+        <v>0.00295</v>
       </c>
       <c r="H22">
         <v>0.00028</v>
       </c>
       <c r="I22">
-        <v>0.0078</v>
+        <v>0.00781</v>
       </c>
       <c r="J22">
         <v>0.00402</v>
@@ -5798,13 +5798,13 @@
         <v>97</v>
       </c>
       <c r="B23">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C23">
         <v>0.00796</v>
       </c>
       <c r="D23">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5816,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I23">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J23">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K23">
         <v>0.01536</v>
@@ -5848,25 +5848,25 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C24">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D24">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E24">
         <v>0.00024</v>
       </c>
       <c r="F24">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I24">
         <v>0.00029</v>
@@ -5898,7 +5898,7 @@
         <v>98</v>
       </c>
       <c r="B25">
-        <v>0.00124</v>
+        <v>0.0012</v>
       </c>
       <c r="C25">
         <v>0.00455</v>
@@ -5910,7 +5910,7 @@
         <v>0.0001</v>
       </c>
       <c r="F25">
-        <v>0.00023</v>
+        <v>0.00021</v>
       </c>
       <c r="G25">
         <v>6E-05</v>
@@ -5948,13 +5948,13 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>0.00121</v>
+        <v>0.00118</v>
       </c>
       <c r="C26">
         <v>0.00038</v>
       </c>
       <c r="D26">
-        <v>0.00147</v>
+        <v>0.00142</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.00417</v>
+        <v>0.00413</v>
       </c>
       <c r="I26">
         <v>0.00153</v>
@@ -5998,25 +5998,25 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>0.00119</v>
+        <v>0.00116</v>
       </c>
       <c r="C27">
         <v>0.00013</v>
       </c>
       <c r="D27">
-        <v>0.00152</v>
+        <v>0.00147</v>
       </c>
       <c r="E27">
-        <v>0.00238</v>
+        <v>0.00235</v>
       </c>
       <c r="F27">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G27">
         <v>4E-05</v>
       </c>
       <c r="H27">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="I27">
         <v>0.00031</v>
@@ -6048,19 +6048,19 @@
         <v>100</v>
       </c>
       <c r="B28">
-        <v>0.00116</v>
+        <v>0.00113</v>
       </c>
       <c r="C28">
         <v>0.00423</v>
       </c>
       <c r="D28">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="E28">
         <v>3E-05</v>
       </c>
       <c r="F28">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G28">
         <v>0.00028</v>
@@ -6081,7 +6081,7 @@
         <v>0.04154</v>
       </c>
       <c r="M28">
-        <v>0.03001</v>
+        <v>0.03</v>
       </c>
       <c r="N28">
         <v>0.00372</v>
@@ -6098,7 +6098,7 @@
         <v>101</v>
       </c>
       <c r="B29">
-        <v>0.00096</v>
+        <v>0.00094</v>
       </c>
       <c r="C29">
         <v>0.0034</v>
@@ -6110,7 +6110,7 @@
         <v>0.00011</v>
       </c>
       <c r="F29">
-        <v>0.00043</v>
+        <v>0.00038</v>
       </c>
       <c r="G29">
         <v>0.00013</v>
@@ -6148,10 +6148,10 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>0.00082</v>
+        <v>0.00078</v>
       </c>
       <c r="C30">
-        <v>0.00337</v>
+        <v>0.00331</v>
       </c>
       <c r="D30">
         <v>1E-05</v>
@@ -6169,7 +6169,7 @@
         <v>3E-05</v>
       </c>
       <c r="I30">
-        <v>0.00359</v>
+        <v>0.00331</v>
       </c>
       <c r="J30">
         <v>0.00156</v>
@@ -6181,7 +6181,7 @@
         <v>0.00426</v>
       </c>
       <c r="M30">
-        <v>0.02696</v>
+        <v>0.02695</v>
       </c>
       <c r="N30">
         <v>0.01222</v>
@@ -6198,10 +6198,10 @@
         <v>102</v>
       </c>
       <c r="B31">
-        <v>0.00077</v>
+        <v>0.00076</v>
       </c>
       <c r="C31">
-        <v>0.0032</v>
+        <v>0.00323</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.00058</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K31">
         <v>0.00026</v>
@@ -6231,13 +6231,13 @@
         <v>0.00156</v>
       </c>
       <c r="M31">
-        <v>0.06584</v>
+        <v>0.06619</v>
       </c>
       <c r="N31">
         <v>0.00356</v>
       </c>
       <c r="O31">
-        <v>0.00563</v>
+        <v>0.00573</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>103</v>
       </c>
       <c r="B32">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C32">
         <v>0.00234</v>
@@ -6260,7 +6260,7 @@
         <v>0.0001</v>
       </c>
       <c r="F32">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G32">
         <v>2E-05</v>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.02808</v>
+        <v>0.02807</v>
       </c>
       <c r="N32">
         <v>0.0009700000000000001</v>
@@ -6298,19 +6298,19 @@
         <v>104</v>
       </c>
       <c r="B33">
-        <v>0.0005999999999999999</v>
+        <v>0.00058</v>
       </c>
       <c r="C33">
         <v>0.00232</v>
       </c>
       <c r="D33">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6348,19 +6348,19 @@
         <v>105</v>
       </c>
       <c r="B34">
-        <v>0.0005999999999999999</v>
+        <v>0.00058</v>
       </c>
       <c r="C34">
         <v>0.00059</v>
       </c>
       <c r="D34">
-        <v>0.0005999999999999999</v>
+        <v>0.00058</v>
       </c>
       <c r="E34">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="F34">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G34">
         <v>0.00053</v>
@@ -6381,7 +6381,7 @@
         <v>0.00405</v>
       </c>
       <c r="M34">
-        <v>0.00425</v>
+        <v>0.00424</v>
       </c>
       <c r="N34">
         <v>0.00154</v>
@@ -6398,25 +6398,25 @@
         <v>106</v>
       </c>
       <c r="B35">
-        <v>0.00056</v>
+        <v>0.00055</v>
       </c>
       <c r="C35">
         <v>0.00011</v>
       </c>
       <c r="D35">
-        <v>0.0007</v>
+        <v>0.00068</v>
       </c>
       <c r="E35">
         <v>0.00061</v>
       </c>
       <c r="F35">
-        <v>0.00124</v>
+        <v>0.00112</v>
       </c>
       <c r="G35">
         <v>0.00022</v>
       </c>
       <c r="H35">
-        <v>0.00058</v>
+        <v>0.00057</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6448,19 +6448,19 @@
         <v>107</v>
       </c>
       <c r="B36">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="C36">
         <v>0.00017</v>
       </c>
       <c r="D36">
-        <v>0.00066</v>
+        <v>0.00063</v>
       </c>
       <c r="E36">
-        <v>0.00182</v>
+        <v>0.0018</v>
       </c>
       <c r="F36">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G36">
         <v>0.00022</v>
@@ -6498,16 +6498,16 @@
         <v>108</v>
       </c>
       <c r="B37">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="C37">
         <v>0.00072</v>
       </c>
       <c r="D37">
-        <v>0.00043</v>
+        <v>0.00041</v>
       </c>
       <c r="E37">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>0.00045</v>
       </c>
       <c r="H37">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="I37">
         <v>0.00196</v>
@@ -6548,16 +6548,16 @@
         <v>109</v>
       </c>
       <c r="B38">
-        <v>0.00049</v>
+        <v>0.00047</v>
       </c>
       <c r="C38">
         <v>0.00095</v>
       </c>
       <c r="D38">
-        <v>0.00034</v>
+        <v>0.00033</v>
       </c>
       <c r="E38">
-        <v>0.00159</v>
+        <v>0.00157</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -6598,19 +6598,19 @@
         <v>110</v>
       </c>
       <c r="B39">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C39">
         <v>2E-05</v>
       </c>
       <c r="D39">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -6648,19 +6648,19 @@
         <v>111</v>
       </c>
       <c r="B40">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E40">
         <v>0.00025</v>
       </c>
       <c r="F40">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -6731,7 +6731,7 @@
         <v>0.0009300000000000001</v>
       </c>
       <c r="M41">
-        <v>0.00611</v>
+        <v>0.0061</v>
       </c>
       <c r="N41">
         <v>0.00065</v>
@@ -6898,7 +6898,7 @@
         <v>116</v>
       </c>
       <c r="B45">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="C45">
         <v>6E-05</v>
@@ -6907,7 +6907,7 @@
         <v>5E-05</v>
       </c>
       <c r="E45">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="F45">
         <v>5E-05</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>122</v>
       </c>
       <c r="B51">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C51">
         <v>0.00015</v>
@@ -7448,7 +7448,7 @@
         <v>127</v>
       </c>
       <c r="B56">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="C56">
         <v>0.00011</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -7858,28 +7858,28 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>0.36636</v>
+        <v>0.35686</v>
       </c>
       <c r="C2">
         <v>0.12373</v>
       </c>
       <c r="D2">
-        <v>0.44289</v>
+        <v>0.42786</v>
       </c>
       <c r="E2">
-        <v>0.41018</v>
+        <v>0.40543</v>
       </c>
       <c r="F2">
-        <v>0.31287</v>
+        <v>0.28249</v>
       </c>
       <c r="G2">
-        <v>0.4647</v>
+        <v>0.46341</v>
       </c>
       <c r="H2">
-        <v>0.55143</v>
+        <v>0.54687</v>
       </c>
       <c r="I2">
-        <v>0.37531</v>
+        <v>0.37541</v>
       </c>
       <c r="J2">
         <v>0.03242</v>
@@ -7891,13 +7891,13 @@
         <v>0.00197</v>
       </c>
       <c r="M2">
-        <v>0.16668</v>
+        <v>0.16662</v>
       </c>
       <c r="N2">
         <v>0.03043</v>
       </c>
       <c r="O2">
-        <v>0.01954</v>
+        <v>0.01953</v>
       </c>
       <c r="P2">
         <v>0.56266</v>
@@ -7908,25 +7908,25 @@
         <v>134</v>
       </c>
       <c r="B3">
-        <v>0.10968</v>
+        <v>0.13308</v>
       </c>
       <c r="C3">
         <v>0.00183</v>
       </c>
       <c r="D3">
-        <v>0.1437</v>
+        <v>0.17304</v>
       </c>
       <c r="E3">
-        <v>0.10444</v>
+        <v>0.114</v>
       </c>
       <c r="F3">
-        <v>0.32132</v>
+        <v>0.38831</v>
       </c>
       <c r="G3">
-        <v>0.06494999999999999</v>
+        <v>0.06686</v>
       </c>
       <c r="H3">
-        <v>0.06666</v>
+        <v>0.07488</v>
       </c>
       <c r="I3">
         <v>0.00262</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.03225</v>
+        <v>0.03224</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -7958,28 +7958,28 @@
         <v>135</v>
       </c>
       <c r="B4">
-        <v>0.07489</v>
+        <v>0.07291</v>
       </c>
       <c r="C4">
         <v>0.0022</v>
       </c>
       <c r="D4">
-        <v>0.09782</v>
+        <v>0.09445000000000001</v>
       </c>
       <c r="E4">
-        <v>0.03023</v>
+        <v>0.02988</v>
       </c>
       <c r="F4">
-        <v>0.00057</v>
+        <v>0.00051</v>
       </c>
       <c r="G4">
-        <v>0.13936</v>
+        <v>0.13896</v>
       </c>
       <c r="H4">
-        <v>0.19032</v>
+        <v>0.18849</v>
       </c>
       <c r="I4">
-        <v>0.0069</v>
+        <v>0.00691</v>
       </c>
       <c r="J4">
         <v>0.00108</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.00142</v>
+        <v>0.00141</v>
       </c>
       <c r="N4">
         <v>0.00251</v>
@@ -8008,10 +8008,10 @@
         <v>136</v>
       </c>
       <c r="B5">
-        <v>0.07098</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="C5">
-        <v>0.29598</v>
+        <v>0.29599</v>
       </c>
       <c r="D5">
         <v>1E-05</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8029,10 +8029,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06038</v>
+        <v>0.06039</v>
       </c>
       <c r="J5">
-        <v>0.43368</v>
+        <v>0.43367</v>
       </c>
       <c r="K5">
         <v>0.23543</v>
@@ -8041,13 +8041,13 @@
         <v>0.40233</v>
       </c>
       <c r="M5">
-        <v>0.01877</v>
+        <v>0.01876</v>
       </c>
       <c r="N5">
         <v>0.017</v>
       </c>
       <c r="O5">
-        <v>0.65996</v>
+        <v>0.6599</v>
       </c>
       <c r="P5">
         <v>0.01509</v>
@@ -8058,31 +8058,31 @@
         <v>137</v>
       </c>
       <c r="B6">
-        <v>0.05151</v>
+        <v>0.05015</v>
       </c>
       <c r="C6">
         <v>0.11216</v>
       </c>
       <c r="D6">
-        <v>0.03239</v>
+        <v>0.03127</v>
       </c>
       <c r="E6">
-        <v>0.00252</v>
+        <v>0.00249</v>
       </c>
       <c r="F6">
-        <v>0.09855</v>
+        <v>0.08896999999999999</v>
       </c>
       <c r="G6">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="H6">
-        <v>0.01306</v>
+        <v>0.01293</v>
       </c>
       <c r="I6">
-        <v>0.01489</v>
+        <v>0.0149</v>
       </c>
       <c r="J6">
-        <v>0.15103</v>
+        <v>0.15102</v>
       </c>
       <c r="K6">
         <v>0.21188</v>
@@ -8091,13 +8091,13 @@
         <v>0.16814</v>
       </c>
       <c r="M6">
-        <v>0.01698</v>
+        <v>0.01697</v>
       </c>
       <c r="N6">
         <v>0.01773</v>
       </c>
       <c r="O6">
-        <v>0.05604</v>
+        <v>0.05603</v>
       </c>
       <c r="P6">
         <v>0.00818</v>
@@ -8108,28 +8108,28 @@
         <v>138</v>
       </c>
       <c r="B7">
-        <v>0.03363</v>
+        <v>0.03274</v>
       </c>
       <c r="C7">
         <v>0.02892</v>
       </c>
       <c r="D7">
-        <v>0.03512</v>
+        <v>0.0339</v>
       </c>
       <c r="E7">
-        <v>0.03036</v>
+        <v>0.03001</v>
       </c>
       <c r="F7">
-        <v>0.00382</v>
+        <v>0.00345</v>
       </c>
       <c r="G7">
-        <v>0.15257</v>
+        <v>0.15214</v>
       </c>
       <c r="H7">
-        <v>0.00314</v>
+        <v>0.00311</v>
       </c>
       <c r="I7">
-        <v>0.09129</v>
+        <v>0.09131</v>
       </c>
       <c r="J7">
         <v>0.00349</v>
@@ -8158,16 +8158,16 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0.03246</v>
+        <v>0.0316</v>
       </c>
       <c r="C8">
         <v>0.12094</v>
       </c>
       <c r="D8">
-        <v>0.00455</v>
+        <v>0.00439</v>
       </c>
       <c r="E8">
-        <v>0.00574</v>
+        <v>0.00568</v>
       </c>
       <c r="F8">
         <v>4E-05</v>
@@ -8176,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.009690000000000001</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I8">
-        <v>0.23771</v>
+        <v>0.23777</v>
       </c>
       <c r="J8">
         <v>0.05709</v>
@@ -8191,7 +8191,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M8">
-        <v>0.28026</v>
+        <v>0.28015</v>
       </c>
       <c r="N8">
         <v>0.26807</v>
@@ -8208,31 +8208,31 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.02915</v>
+        <v>0.02863</v>
       </c>
       <c r="C9">
-        <v>0.02387</v>
+        <v>0.0239</v>
       </c>
       <c r="D9">
-        <v>0.03081</v>
+        <v>0.03008</v>
       </c>
       <c r="E9">
-        <v>0.10756</v>
+        <v>0.10738</v>
       </c>
       <c r="F9">
-        <v>0.00579</v>
+        <v>0.00523</v>
       </c>
       <c r="G9">
-        <v>0.01013</v>
+        <v>0.01081</v>
       </c>
       <c r="H9">
-        <v>0.01804</v>
+        <v>0.01788</v>
       </c>
       <c r="I9">
         <v>0.01868</v>
       </c>
       <c r="J9">
-        <v>0.02226</v>
+        <v>0.02228</v>
       </c>
       <c r="K9">
         <v>0.02796</v>
@@ -8241,13 +8241,13 @@
         <v>0.01475</v>
       </c>
       <c r="M9">
-        <v>0.02644</v>
+        <v>0.0268</v>
       </c>
       <c r="N9">
         <v>0.09494</v>
       </c>
       <c r="O9">
-        <v>0.0095</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="P9">
         <v>0.07801</v>
@@ -8258,25 +8258,25 @@
         <v>139</v>
       </c>
       <c r="B10">
-        <v>0.02524</v>
+        <v>0.02457</v>
       </c>
       <c r="C10">
         <v>0.00104</v>
       </c>
       <c r="D10">
-        <v>0.03287</v>
+        <v>0.03174</v>
       </c>
       <c r="E10">
-        <v>0.06644</v>
+        <v>0.06567000000000001</v>
       </c>
       <c r="F10">
-        <v>0.00459</v>
+        <v>0.00415</v>
       </c>
       <c r="G10">
-        <v>0.07790999999999999</v>
+        <v>0.07769</v>
       </c>
       <c r="H10">
-        <v>0.01362</v>
+        <v>0.01349</v>
       </c>
       <c r="I10">
         <v>0.00231</v>
@@ -8308,31 +8308,31 @@
         <v>86</v>
       </c>
       <c r="B11">
-        <v>0.02434</v>
+        <v>0.0237</v>
       </c>
       <c r="C11">
-        <v>0.07903</v>
+        <v>0.07904</v>
       </c>
       <c r="D11">
-        <v>0.00709</v>
+        <v>0.00685</v>
       </c>
       <c r="E11">
-        <v>0.02123</v>
+        <v>0.02098</v>
       </c>
       <c r="F11">
-        <v>0.0005</v>
+        <v>0.00045</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00793</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="I11">
-        <v>0.03752</v>
+        <v>0.03753</v>
       </c>
       <c r="J11">
-        <v>0.11631</v>
+        <v>0.1163</v>
       </c>
       <c r="K11">
         <v>0.13632</v>
@@ -8358,28 +8358,28 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>0.02372</v>
+        <v>0.0231</v>
       </c>
       <c r="C12">
         <v>0.01874</v>
       </c>
       <c r="D12">
-        <v>0.02529</v>
+        <v>0.02442</v>
       </c>
       <c r="E12">
-        <v>0.0098</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="F12">
-        <v>0.05015</v>
+        <v>0.04528</v>
       </c>
       <c r="G12">
-        <v>0.00727</v>
+        <v>0.00725</v>
       </c>
       <c r="H12">
-        <v>0.02359</v>
+        <v>0.02336</v>
       </c>
       <c r="I12">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="J12">
         <v>0.01879</v>
@@ -8408,25 +8408,25 @@
         <v>141</v>
       </c>
       <c r="B13">
-        <v>0.02343</v>
+        <v>0.02281</v>
       </c>
       <c r="C13">
         <v>0.00028</v>
       </c>
       <c r="D13">
-        <v>0.03073</v>
+        <v>0.02967</v>
       </c>
       <c r="E13">
-        <v>0.00668</v>
+        <v>0.00661</v>
       </c>
       <c r="F13">
-        <v>0.08179</v>
+        <v>0.07385</v>
       </c>
       <c r="G13">
-        <v>0.02293</v>
+        <v>0.02287</v>
       </c>
       <c r="H13">
-        <v>0.00822</v>
+        <v>0.00814</v>
       </c>
       <c r="I13">
         <v>0.0006400000000000001</v>
@@ -8458,16 +8458,16 @@
         <v>142</v>
       </c>
       <c r="B14">
-        <v>0.01877</v>
+        <v>0.01827</v>
       </c>
       <c r="C14">
         <v>0.01455</v>
       </c>
       <c r="D14">
-        <v>0.0201</v>
+        <v>0.0194</v>
       </c>
       <c r="E14">
-        <v>0.09546</v>
+        <v>0.09435</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0.00043</v>
       </c>
       <c r="H14">
-        <v>0.00375</v>
+        <v>0.00372</v>
       </c>
       <c r="I14">
         <v>0.00491</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.00425</v>
+        <v>0.00424</v>
       </c>
       <c r="N14">
         <v>0.0123</v>
@@ -8508,25 +8508,25 @@
         <v>143</v>
       </c>
       <c r="B15">
-        <v>0.01662</v>
+        <v>0.01618</v>
       </c>
       <c r="C15">
         <v>0.00091</v>
       </c>
       <c r="D15">
-        <v>0.02157</v>
+        <v>0.02083</v>
       </c>
       <c r="E15">
-        <v>0.02635</v>
+        <v>0.02604</v>
       </c>
       <c r="F15">
-        <v>0.02663</v>
+        <v>0.02404</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02582</v>
+        <v>0.02557</v>
       </c>
       <c r="I15">
         <v>0.00329</v>
@@ -8558,28 +8558,28 @@
         <v>144</v>
       </c>
       <c r="B16">
-        <v>0.01447</v>
+        <v>0.01409</v>
       </c>
       <c r="C16">
         <v>0.05837</v>
       </c>
       <c r="D16">
-        <v>0.00063</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00098</v>
+        <v>0.00088</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.00102</v>
+        <v>0.00101</v>
       </c>
       <c r="I16">
-        <v>0.01664</v>
+        <v>0.01665</v>
       </c>
       <c r="J16">
         <v>0.08187999999999999</v>
@@ -8591,13 +8591,13 @@
         <v>0.10977</v>
       </c>
       <c r="M16">
-        <v>0.02078</v>
+        <v>0.02077</v>
       </c>
       <c r="N16">
         <v>0.00534</v>
       </c>
       <c r="O16">
-        <v>0.08363</v>
+        <v>0.08362</v>
       </c>
       <c r="P16">
         <v>0.00537</v>
@@ -8608,25 +8608,25 @@
         <v>145</v>
       </c>
       <c r="B17">
-        <v>0.01122</v>
+        <v>0.01092</v>
       </c>
       <c r="C17">
         <v>0.00034</v>
       </c>
       <c r="D17">
-        <v>0.01465</v>
+        <v>0.01414</v>
       </c>
       <c r="E17">
         <v>0.00062</v>
       </c>
       <c r="F17">
-        <v>0.04136</v>
+        <v>0.03735</v>
       </c>
       <c r="G17">
-        <v>0.00498</v>
+        <v>0.00497</v>
       </c>
       <c r="H17">
-        <v>0.00648</v>
+        <v>0.00642</v>
       </c>
       <c r="I17">
         <v>0.00106</v>
@@ -8658,25 +8658,25 @@
         <v>73</v>
       </c>
       <c r="B18">
-        <v>0.009259999999999999</v>
+        <v>0.00902</v>
       </c>
       <c r="C18">
         <v>0.00693</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
+        <v>0.009650000000000001</v>
       </c>
       <c r="E18">
-        <v>0.01878</v>
+        <v>0.01856</v>
       </c>
       <c r="F18">
-        <v>0.00119</v>
+        <v>0.00107</v>
       </c>
       <c r="G18">
-        <v>0.00483</v>
+        <v>0.00482</v>
       </c>
       <c r="H18">
-        <v>0.01457</v>
+        <v>0.01443</v>
       </c>
       <c r="I18">
         <v>0.0086</v>
@@ -8691,7 +8691,7 @@
         <v>0.007889999999999999</v>
       </c>
       <c r="M18">
-        <v>0.04692</v>
+        <v>0.0469</v>
       </c>
       <c r="N18">
         <v>0.01214</v>
@@ -8708,25 +8708,25 @@
         <v>146</v>
       </c>
       <c r="B19">
-        <v>0.00697</v>
+        <v>0.00679</v>
       </c>
       <c r="C19">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D19">
-        <v>0.00915</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="E19">
-        <v>0.00886</v>
+        <v>0.00876</v>
       </c>
       <c r="F19">
-        <v>0.00036</v>
+        <v>0.00032</v>
       </c>
       <c r="G19">
-        <v>0.01448</v>
+        <v>0.01444</v>
       </c>
       <c r="H19">
-        <v>0.01348</v>
+        <v>0.01335</v>
       </c>
       <c r="I19">
         <v>0.00033</v>
@@ -8758,22 +8758,22 @@
         <v>147</v>
       </c>
       <c r="B20">
-        <v>0.00453</v>
+        <v>0.00441</v>
       </c>
       <c r="C20">
         <v>0.00664</v>
       </c>
       <c r="D20">
-        <v>0.00387</v>
+        <v>0.00374</v>
       </c>
       <c r="E20">
-        <v>0.01195</v>
+        <v>0.01181</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00793</v>
+        <v>0.00791</v>
       </c>
       <c r="H20">
         <v>0.00035</v>
@@ -8808,19 +8808,19 @@
         <v>148</v>
       </c>
       <c r="B21">
-        <v>0.00368</v>
+        <v>0.00358</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.00484</v>
+        <v>0.00467</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.01762</v>
+        <v>0.01591</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -8858,22 +8858,22 @@
         <v>149</v>
       </c>
       <c r="B22">
-        <v>0.00326</v>
+        <v>0.00318</v>
       </c>
       <c r="C22">
         <v>0.00685</v>
       </c>
       <c r="D22">
-        <v>0.00213</v>
+        <v>0.00206</v>
       </c>
       <c r="E22">
-        <v>0.00251</v>
+        <v>0.00248</v>
       </c>
       <c r="F22">
-        <v>0.00125</v>
+        <v>0.00113</v>
       </c>
       <c r="G22">
-        <v>0.00678</v>
+        <v>0.00677</v>
       </c>
       <c r="H22">
         <v>0.00027</v>
@@ -8908,25 +8908,25 @@
         <v>150</v>
       </c>
       <c r="B23">
-        <v>0.0032</v>
+        <v>0.00311</v>
       </c>
       <c r="C23">
         <v>0.00518</v>
       </c>
       <c r="D23">
-        <v>0.00257</v>
+        <v>0.00248</v>
       </c>
       <c r="E23">
-        <v>0.00165</v>
+        <v>0.00163</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00152</v>
+        <v>0.00151</v>
       </c>
       <c r="H23">
-        <v>0.00561</v>
+        <v>0.00556</v>
       </c>
       <c r="I23">
         <v>0.00225</v>
@@ -8958,22 +8958,22 @@
         <v>151</v>
       </c>
       <c r="B24">
-        <v>0.00266</v>
+        <v>0.00255</v>
       </c>
       <c r="C24">
         <v>0.00044</v>
       </c>
       <c r="D24">
-        <v>0.00336</v>
+        <v>0.00319</v>
       </c>
       <c r="E24">
-        <v>0.00511</v>
+        <v>0.00479</v>
       </c>
       <c r="F24">
-        <v>0.0037</v>
+        <v>0.00334</v>
       </c>
       <c r="G24">
-        <v>0.00721</v>
+        <v>0.00719</v>
       </c>
       <c r="H24">
         <v>0.00018</v>
@@ -9008,19 +9008,19 @@
         <v>152</v>
       </c>
       <c r="B25">
-        <v>0.00257</v>
+        <v>0.0025</v>
       </c>
       <c r="C25">
         <v>0.00993</v>
       </c>
       <c r="D25">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -9041,7 +9041,7 @@
         <v>0.00769</v>
       </c>
       <c r="M25">
-        <v>0.01043</v>
+        <v>0.01042</v>
       </c>
       <c r="N25">
         <v>0.00461</v>
@@ -9058,28 +9058,28 @@
         <v>153</v>
       </c>
       <c r="B26">
-        <v>0.00256</v>
+        <v>0.00249</v>
       </c>
       <c r="C26">
         <v>0.00814</v>
       </c>
       <c r="D26">
-        <v>0.0008</v>
+        <v>0.00077</v>
       </c>
       <c r="E26">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.00296</v>
+        <v>0.00295</v>
       </c>
       <c r="H26">
         <v>0.00028</v>
       </c>
       <c r="I26">
-        <v>0.0078</v>
+        <v>0.00781</v>
       </c>
       <c r="J26">
         <v>0.00402</v>
@@ -9108,25 +9108,25 @@
         <v>154</v>
       </c>
       <c r="B27">
-        <v>0.00242</v>
+        <v>0.00235</v>
       </c>
       <c r="C27">
         <v>0.00784</v>
       </c>
       <c r="D27">
-        <v>0.00071</v>
+        <v>0.00068</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.00031</v>
+        <v>0.00028</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.00177</v>
+        <v>0.00175</v>
       </c>
       <c r="I27">
         <v>0.01553</v>
@@ -9158,25 +9158,25 @@
         <v>155</v>
       </c>
       <c r="B28">
-        <v>0.00222</v>
+        <v>0.00216</v>
       </c>
       <c r="C28">
         <v>0.00649</v>
       </c>
       <c r="D28">
-        <v>0.00087</v>
+        <v>0.00084</v>
       </c>
       <c r="E28">
-        <v>0.00039</v>
+        <v>0.00038</v>
       </c>
       <c r="F28">
-        <v>0.00205</v>
+        <v>0.00185</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.00066</v>
+        <v>0.00065</v>
       </c>
       <c r="I28">
         <v>0.00074</v>
@@ -9191,7 +9191,7 @@
         <v>0.00415</v>
       </c>
       <c r="M28">
-        <v>0.00708</v>
+        <v>0.00707</v>
       </c>
       <c r="N28">
         <v>0.17119</v>
@@ -9208,13 +9208,13 @@
         <v>156</v>
       </c>
       <c r="B29">
-        <v>0.0022</v>
+        <v>0.00214</v>
       </c>
       <c r="C29">
         <v>0.00796</v>
       </c>
       <c r="D29">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -9226,13 +9226,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I29">
-        <v>0.00379</v>
+        <v>0.0038</v>
       </c>
       <c r="J29">
-        <v>0.00563</v>
+        <v>0.00562</v>
       </c>
       <c r="K29">
         <v>0.01536</v>
@@ -9258,25 +9258,25 @@
         <v>58</v>
       </c>
       <c r="B30">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="C30">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D30">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="E30">
         <v>0.00024</v>
       </c>
       <c r="F30">
-        <v>0.00057</v>
+        <v>0.00052</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.00479</v>
+        <v>0.00474</v>
       </c>
       <c r="I30">
         <v>0.00029</v>
@@ -9308,19 +9308,19 @@
         <v>157</v>
       </c>
       <c r="B31">
-        <v>0.00136</v>
+        <v>0.00132</v>
       </c>
       <c r="C31">
         <v>0.00032</v>
       </c>
       <c r="D31">
-        <v>0.00168</v>
+        <v>0.00163</v>
       </c>
       <c r="E31">
-        <v>0.00759</v>
+        <v>0.0075</v>
       </c>
       <c r="F31">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="G31">
         <v>0.00022</v>
@@ -9358,25 +9358,25 @@
         <v>158</v>
       </c>
       <c r="B32">
-        <v>0.00134</v>
+        <v>0.00131</v>
       </c>
       <c r="C32">
         <v>0.00012</v>
       </c>
       <c r="D32">
-        <v>0.00173</v>
+        <v>0.00167</v>
       </c>
       <c r="E32">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="F32">
-        <v>0.00568</v>
+        <v>0.00512</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.00035</v>
+        <v>0.00034</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -9408,13 +9408,13 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>0.00121</v>
+        <v>0.00118</v>
       </c>
       <c r="C33">
         <v>0.00038</v>
       </c>
       <c r="D33">
-        <v>0.00147</v>
+        <v>0.00142</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.00417</v>
+        <v>0.00413</v>
       </c>
       <c r="I33">
         <v>0.00153</v>
@@ -9458,25 +9458,25 @@
         <v>59</v>
       </c>
       <c r="B34">
-        <v>0.00119</v>
+        <v>0.00116</v>
       </c>
       <c r="C34">
         <v>0.00013</v>
       </c>
       <c r="D34">
-        <v>0.00152</v>
+        <v>0.00147</v>
       </c>
       <c r="E34">
-        <v>0.00238</v>
+        <v>0.00235</v>
       </c>
       <c r="F34">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="G34">
         <v>4E-05</v>
       </c>
       <c r="H34">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="I34">
         <v>0.00031</v>
@@ -9508,13 +9508,13 @@
         <v>159</v>
       </c>
       <c r="B35">
-        <v>0.00115</v>
+        <v>0.00112</v>
       </c>
       <c r="C35">
         <v>0.00397</v>
       </c>
       <c r="D35">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.00073</v>
+        <v>0.00072</v>
       </c>
       <c r="I35">
         <v>0.01526</v>
@@ -9558,46 +9558,46 @@
         <v>160</v>
       </c>
       <c r="B36">
-        <v>0.00115</v>
+        <v>0.00111</v>
       </c>
       <c r="C36">
-        <v>0.00263</v>
+        <v>0.00419</v>
       </c>
       <c r="D36">
-        <v>0.00068</v>
+        <v>0.00017</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.00192</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G36">
-        <v>4E-05</v>
+        <v>0.00028</v>
       </c>
       <c r="H36">
-        <v>0.00041</v>
+        <v>0.00028</v>
       </c>
       <c r="I36">
-        <v>0.00026</v>
+        <v>0.00434</v>
       </c>
       <c r="J36">
-        <v>6.999999999999999E-05</v>
+        <v>0.00058</v>
       </c>
       <c r="K36">
-        <v>0.00063</v>
+        <v>0.00204</v>
       </c>
       <c r="L36">
-        <v>0.00332</v>
+        <v>0.04154</v>
       </c>
       <c r="M36">
-        <v>0.05526</v>
+        <v>0.03</v>
       </c>
       <c r="N36">
-        <v>0.01748</v>
+        <v>0.00372</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.00385</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -9608,49 +9608,49 @@
         <v>161</v>
       </c>
       <c r="B37">
-        <v>0.00114</v>
+        <v>0.00109</v>
       </c>
       <c r="C37">
-        <v>0.00419</v>
+        <v>0.00134</v>
       </c>
       <c r="D37">
-        <v>0.00017</v>
+        <v>0.00101</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.0043</v>
       </c>
       <c r="F37">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.00028</v>
+        <v>0.00071</v>
       </c>
       <c r="H37">
-        <v>0.00028</v>
+        <v>0.00019</v>
       </c>
       <c r="I37">
-        <v>0.00434</v>
+        <v>0.00061</v>
       </c>
       <c r="J37">
-        <v>0.00058</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0.00204</v>
+        <v>0.00037</v>
       </c>
       <c r="L37">
-        <v>0.04154</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="M37">
-        <v>0.03001</v>
+        <v>0.00275</v>
       </c>
       <c r="N37">
-        <v>0.00372</v>
+        <v>0.00461</v>
       </c>
       <c r="O37">
-        <v>0.00385</v>
+        <v>0.00347</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>0.02839</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -9658,49 +9658,49 @@
         <v>162</v>
       </c>
       <c r="B38">
-        <v>0.00112</v>
+        <v>0.00094</v>
       </c>
       <c r="C38">
-        <v>0.00134</v>
+        <v>0.0034</v>
       </c>
       <c r="D38">
-        <v>0.00105</v>
+        <v>0.00019</v>
       </c>
       <c r="E38">
-        <v>0.00435</v>
+        <v>0.00011</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.00038</v>
       </c>
       <c r="G38">
-        <v>0.00071</v>
+        <v>0.00013</v>
       </c>
       <c r="H38">
-        <v>0.00019</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I38">
-        <v>0.00061</v>
+        <v>0.00153</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.00453</v>
       </c>
       <c r="K38">
-        <v>0.00037</v>
+        <v>0.00228</v>
       </c>
       <c r="L38">
-        <v>0.008829999999999999</v>
+        <v>0.00478</v>
       </c>
       <c r="M38">
-        <v>0.00276</v>
+        <v>0.01281</v>
       </c>
       <c r="N38">
-        <v>0.00461</v>
+        <v>0.00162</v>
       </c>
       <c r="O38">
-        <v>0.00347</v>
+        <v>0.00416</v>
       </c>
       <c r="P38">
-        <v>0.02839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -9708,46 +9708,46 @@
         <v>163</v>
       </c>
       <c r="B39">
-        <v>0.00096</v>
+        <v>0.00087</v>
       </c>
       <c r="C39">
-        <v>0.0034</v>
+        <v>0.00263</v>
       </c>
       <c r="D39">
-        <v>0.00019</v>
+        <v>0.00034</v>
       </c>
       <c r="E39">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.00043</v>
+        <v>0.00066</v>
       </c>
       <c r="G39">
-        <v>0.00013</v>
+        <v>4E-05</v>
       </c>
       <c r="H39">
-        <v>9.000000000000001E-05</v>
+        <v>0.00041</v>
       </c>
       <c r="I39">
-        <v>0.00153</v>
+        <v>0.00026</v>
       </c>
       <c r="J39">
-        <v>0.00453</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="K39">
-        <v>0.00228</v>
+        <v>0.00063</v>
       </c>
       <c r="L39">
-        <v>0.00478</v>
+        <v>0.00332</v>
       </c>
       <c r="M39">
-        <v>0.01281</v>
+        <v>0.05524</v>
       </c>
       <c r="N39">
-        <v>0.00162</v>
+        <v>0.01748</v>
       </c>
       <c r="O39">
-        <v>0.00416</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -9758,25 +9758,25 @@
         <v>164</v>
       </c>
       <c r="B40">
-        <v>0.00086</v>
+        <v>0.00084</v>
       </c>
       <c r="C40">
         <v>0.00023</v>
       </c>
       <c r="D40">
-        <v>0.00106</v>
+        <v>0.00103</v>
       </c>
       <c r="E40">
-        <v>0.00413</v>
+        <v>0.00408</v>
       </c>
       <c r="F40">
-        <v>5E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G40">
         <v>0.0005</v>
       </c>
       <c r="H40">
-        <v>0.00044</v>
+        <v>0.00043</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -9808,10 +9808,10 @@
         <v>61</v>
       </c>
       <c r="B41">
-        <v>0.00082</v>
+        <v>0.00078</v>
       </c>
       <c r="C41">
-        <v>0.00337</v>
+        <v>0.00331</v>
       </c>
       <c r="D41">
         <v>1E-05</v>
@@ -9829,7 +9829,7 @@
         <v>3E-05</v>
       </c>
       <c r="I41">
-        <v>0.00359</v>
+        <v>0.00331</v>
       </c>
       <c r="J41">
         <v>0.00156</v>
@@ -9841,7 +9841,7 @@
         <v>0.00426</v>
       </c>
       <c r="M41">
-        <v>0.02696</v>
+        <v>0.02695</v>
       </c>
       <c r="N41">
         <v>0.01222</v>
@@ -9858,19 +9858,19 @@
         <v>165</v>
       </c>
       <c r="B42">
-        <v>0.00075</v>
+        <v>0.00073</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.00099</v>
+        <v>0.00095</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.00359</v>
+        <v>0.00324</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -9908,7 +9908,7 @@
         <v>166</v>
       </c>
       <c r="B43">
-        <v>0.00071</v>
+        <v>0.00069</v>
       </c>
       <c r="C43">
         <v>0.00264</v>
@@ -9958,19 +9958,19 @@
         <v>167</v>
       </c>
       <c r="B44">
-        <v>0.00065</v>
+        <v>0.00063</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.00085</v>
+        <v>0.00082</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.0031</v>
+        <v>0.0028</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -10008,25 +10008,25 @@
         <v>168</v>
       </c>
       <c r="B45">
-        <v>0.00063</v>
+        <v>0.00061</v>
       </c>
       <c r="C45">
         <v>0.0009700000000000001</v>
       </c>
       <c r="D45">
-        <v>0.00052</v>
+        <v>0.0005</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.0009</v>
+        <v>0.00082</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.00078</v>
+        <v>0.00077</v>
       </c>
       <c r="I45">
         <v>0.00034</v>
@@ -10058,7 +10058,7 @@
         <v>169</v>
       </c>
       <c r="B46">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C46">
         <v>0.00234</v>
@@ -10070,7 +10070,7 @@
         <v>0.0001</v>
       </c>
       <c r="F46">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G46">
         <v>2E-05</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.02808</v>
+        <v>0.02807</v>
       </c>
       <c r="N46">
         <v>0.0009700000000000001</v>
@@ -10108,19 +10108,19 @@
         <v>170</v>
       </c>
       <c r="B47">
-        <v>0.00058</v>
+        <v>0.00057</v>
       </c>
       <c r="C47">
         <v>0.00059</v>
       </c>
       <c r="D47">
-        <v>0.00058</v>
+        <v>0.00056</v>
       </c>
       <c r="E47">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="F47">
-        <v>0.00141</v>
+        <v>0.00127</v>
       </c>
       <c r="G47">
         <v>0.00053</v>
@@ -10141,7 +10141,7 @@
         <v>0.00405</v>
       </c>
       <c r="M47">
-        <v>0.00425</v>
+        <v>0.00424</v>
       </c>
       <c r="N47">
         <v>0.00154</v>
@@ -10158,7 +10158,7 @@
         <v>171</v>
       </c>
       <c r="B48">
-        <v>0.00058</v>
+        <v>0.00057</v>
       </c>
       <c r="C48">
         <v>0.00243</v>
@@ -10191,7 +10191,7 @@
         <v>0.00156</v>
       </c>
       <c r="M48">
-        <v>0.0458</v>
+        <v>0.04579</v>
       </c>
       <c r="N48">
         <v>0.00356</v>
@@ -10208,19 +10208,19 @@
         <v>172</v>
       </c>
       <c r="B49">
-        <v>0.00058</v>
+        <v>0.00056</v>
       </c>
       <c r="C49">
         <v>0.00223</v>
       </c>
       <c r="D49">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>173</v>
       </c>
       <c r="B50">
-        <v>0.00051</v>
+        <v>0.0005</v>
       </c>
       <c r="C50">
         <v>0.00194</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -10308,19 +10308,19 @@
         <v>174</v>
       </c>
       <c r="B51">
-        <v>0.00051</v>
+        <v>0.00049</v>
       </c>
       <c r="C51">
         <v>0.0018</v>
       </c>
       <c r="D51">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>175</v>
       </c>
       <c r="B52">
-        <v>0.00045</v>
+        <v>0.00043</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.00059</v>
+        <v>0.00057</v>
       </c>
       <c r="E52">
-        <v>0.003</v>
+        <v>0.00296</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>176</v>
       </c>
       <c r="B53">
-        <v>0.00044</v>
+        <v>0.00042</v>
       </c>
       <c r="C53">
         <v>0.00182</v>
@@ -10458,7 +10458,7 @@
         <v>177</v>
       </c>
       <c r="B54">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="C54">
         <v>0.00143</v>
@@ -10508,7 +10508,7 @@
         <v>178</v>
       </c>
       <c r="B55">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="C55">
         <v>0.00131</v>
@@ -10520,7 +10520,7 @@
         <v>5E-05</v>
       </c>
       <c r="F55">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="G55">
         <v>0.00022</v>
@@ -10558,22 +10558,22 @@
         <v>179</v>
       </c>
       <c r="B56">
-        <v>0.00037</v>
+        <v>0.00036</v>
       </c>
       <c r="C56">
         <v>0.0001</v>
       </c>
       <c r="D56">
-        <v>0.00046</v>
+        <v>0.00045</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G56">
-        <v>0.00213</v>
+        <v>0.00212</v>
       </c>
       <c r="H56">
         <v>4E-05</v>
@@ -10608,7 +10608,7 @@
         <v>180</v>
       </c>
       <c r="B57">
-        <v>0.00035</v>
+        <v>0.00034</v>
       </c>
       <c r="C57">
         <v>0.00146</v>
@@ -10658,19 +10658,19 @@
         <v>181</v>
       </c>
       <c r="B58">
-        <v>0.00034</v>
+        <v>0.00033</v>
       </c>
       <c r="C58">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D58">
-        <v>0.00042</v>
+        <v>0.0004</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.00112</v>
+        <v>0.00101</v>
       </c>
       <c r="G58">
         <v>0.00022</v>
@@ -10708,19 +10708,19 @@
         <v>182</v>
       </c>
       <c r="B59">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C59">
         <v>2E-05</v>
       </c>
       <c r="D59">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.00148</v>
+        <v>0.00134</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -10758,16 +10758,16 @@
         <v>183</v>
       </c>
       <c r="B60">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="E60">
-        <v>0.00209</v>
+        <v>0.00206</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>184</v>
       </c>
       <c r="B61">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C61">
         <v>0.00129</v>
@@ -10858,16 +10858,16 @@
         <v>185</v>
       </c>
       <c r="B62">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="C62">
         <v>0.0002</v>
       </c>
       <c r="D62">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="E62">
-        <v>0.00138</v>
+        <v>0.00136</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.00051</v>
+        <v>0.00046</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -10958,16 +10958,16 @@
         <v>187</v>
       </c>
       <c r="B64">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="C64">
         <v>0.00013</v>
       </c>
       <c r="D64">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E64">
-        <v>0.00072</v>
+        <v>0.00071</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>188</v>
       </c>
       <c r="B65">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C65">
         <v>0.00027</v>
@@ -11026,7 +11026,7 @@
         <v>0.00025</v>
       </c>
       <c r="H65">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="I65">
         <v>0.00099</v>
@@ -11058,7 +11058,7 @@
         <v>189</v>
       </c>
       <c r="B66">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C66">
         <v>0.00019</v>
@@ -11067,7 +11067,7 @@
         <v>0.00018</v>
       </c>
       <c r="E66">
-        <v>0.00094</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -11108,7 +11108,7 @@
         <v>190</v>
       </c>
       <c r="B67">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C67">
         <v>0.00077</v>
@@ -11164,13 +11164,13 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="E68">
         <v>0.00041</v>
       </c>
       <c r="F68">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -11214,10 +11214,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="E69">
-        <v>0.00115</v>
+        <v>0.00114</v>
       </c>
       <c r="F69">
         <v>4E-05</v>
@@ -11264,7 +11264,7 @@
         <v>0.00028</v>
       </c>
       <c r="D70">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="I70">
         <v>0.00073</v>
@@ -11308,7 +11308,7 @@
         <v>194</v>
       </c>
       <c r="B71">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="C71">
         <v>0.00058</v>
@@ -11358,7 +11358,7 @@
         <v>195</v>
       </c>
       <c r="B72">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="C72">
         <v>0.00034</v>
@@ -11467,7 +11467,7 @@
         <v>0.0001</v>
       </c>
       <c r="E74">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -11508,19 +11508,19 @@
         <v>198</v>
       </c>
       <c r="B75">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E75">
         <v>0.00025</v>
       </c>
       <c r="F75">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -11558,19 +11558,19 @@
         <v>199</v>
       </c>
       <c r="B76">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="G76">
         <v>0.00085</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0.0009300000000000001</v>
       </c>
       <c r="M77">
-        <v>0.00611</v>
+        <v>0.0061</v>
       </c>
       <c r="N77">
         <v>0.00065</v>
@@ -11708,7 +11708,7 @@
         <v>202</v>
       </c>
       <c r="B79">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="C79">
         <v>2E-05</v>
@@ -11717,7 +11717,7 @@
         <v>0.00013</v>
       </c>
       <c r="E79">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -11758,19 +11758,19 @@
         <v>203</v>
       </c>
       <c r="B80">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.00051</v>
+        <v>0.00046</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -12058,7 +12058,7 @@
         <v>209</v>
       </c>
       <c r="B86">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="C86">
         <v>0.00018</v>
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.00026</v>
+        <v>0.00024</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -12508,7 +12508,7 @@
         <v>218</v>
       </c>
       <c r="B95">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C95">
         <v>0.00015</v>
@@ -13108,7 +13108,7 @@
         <v>230</v>
       </c>
       <c r="B107">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="C107">
         <v>0.00011</v>
@@ -13167,7 +13167,7 @@
         <v>3E-05</v>
       </c>
       <c r="E108">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -13273,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -13467,7 +13467,7 @@
         <v>2E-05</v>
       </c>
       <c r="E114">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -13508,7 +13508,7 @@
         <v>238</v>
       </c>
       <c r="B115">
-        <v>2E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -14218,31 +14218,31 @@
         <v>248</v>
       </c>
       <c r="B2">
-        <v>0.47512</v>
+        <v>0.46274</v>
       </c>
       <c r="C2">
-        <v>0.24429</v>
+        <v>0.2443</v>
       </c>
       <c r="D2">
-        <v>0.54793</v>
+        <v>0.52926</v>
       </c>
       <c r="E2">
-        <v>0.56464</v>
+        <v>0.55809</v>
       </c>
       <c r="F2">
-        <v>0.2826</v>
+        <v>0.25514</v>
       </c>
       <c r="G2">
-        <v>0.59692</v>
+        <v>0.59526</v>
       </c>
       <c r="H2">
-        <v>0.7208</v>
+        <v>0.71458</v>
       </c>
       <c r="I2">
-        <v>0.47518</v>
+        <v>0.47531</v>
       </c>
       <c r="J2">
-        <v>0.14581</v>
+        <v>0.1458</v>
       </c>
       <c r="K2">
         <v>0.16757</v>
@@ -14251,13 +14251,13 @@
         <v>0.17427</v>
       </c>
       <c r="M2">
-        <v>0.27303</v>
+        <v>0.27293</v>
       </c>
       <c r="N2">
         <v>0.39652</v>
       </c>
       <c r="O2">
-        <v>0.13212</v>
+        <v>0.13211</v>
       </c>
       <c r="P2">
         <v>0.65141</v>
@@ -14268,31 +14268,31 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>0.3678</v>
+        <v>0.35807</v>
       </c>
       <c r="C3">
-        <v>0.6371599999999999</v>
+        <v>0.63715</v>
       </c>
       <c r="D3">
-        <v>0.28284</v>
+        <v>0.27309</v>
       </c>
       <c r="E3">
-        <v>0.36568</v>
+        <v>0.3624</v>
       </c>
       <c r="F3">
-        <v>0.29403</v>
+        <v>0.26441</v>
       </c>
       <c r="G3">
-        <v>0.36464</v>
+        <v>0.36433</v>
       </c>
       <c r="H3">
-        <v>0.18698</v>
+        <v>0.18524</v>
       </c>
       <c r="I3">
-        <v>0.42111</v>
+        <v>0.42095</v>
       </c>
       <c r="J3">
-        <v>0.70974</v>
+        <v>0.70975</v>
       </c>
       <c r="K3">
         <v>0.65594</v>
@@ -14301,13 +14301,13 @@
         <v>0.80486</v>
       </c>
       <c r="M3">
-        <v>0.6801199999999999</v>
+        <v>0.68024</v>
       </c>
       <c r="N3">
         <v>0.54966</v>
       </c>
       <c r="O3">
-        <v>0.84074</v>
+        <v>0.84076</v>
       </c>
       <c r="P3">
         <v>0.29847</v>
@@ -14318,25 +14318,25 @@
         <v>249</v>
       </c>
       <c r="B4">
-        <v>0.05218</v>
+        <v>0.07706</v>
       </c>
       <c r="C4">
         <v>0.00015</v>
       </c>
       <c r="D4">
-        <v>0.06858</v>
+        <v>0.10048</v>
       </c>
       <c r="E4">
-        <v>0.02206</v>
+        <v>0.03243</v>
       </c>
       <c r="F4">
-        <v>0.20902</v>
+        <v>0.28692</v>
       </c>
       <c r="G4">
-        <v>0.00411</v>
+        <v>0.00618</v>
       </c>
       <c r="H4">
-        <v>0.0174</v>
+        <v>0.02605</v>
       </c>
       <c r="I4">
         <v>0.00063</v>
@@ -14368,25 +14368,25 @@
         <v>250</v>
       </c>
       <c r="B5">
-        <v>0.02787</v>
+        <v>0.02714</v>
       </c>
       <c r="C5">
         <v>6E-05</v>
       </c>
       <c r="D5">
-        <v>0.03665</v>
+        <v>0.03538</v>
       </c>
       <c r="E5">
-        <v>0.01461</v>
+        <v>0.01444</v>
       </c>
       <c r="F5">
-        <v>0.10631</v>
+        <v>0.09598</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01302</v>
+        <v>0.01289</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -14418,25 +14418,25 @@
         <v>251</v>
       </c>
       <c r="B6">
-        <v>0.02343</v>
+        <v>0.02281</v>
       </c>
       <c r="C6">
         <v>0.00028</v>
       </c>
       <c r="D6">
-        <v>0.03073</v>
+        <v>0.02967</v>
       </c>
       <c r="E6">
-        <v>0.00668</v>
+        <v>0.00661</v>
       </c>
       <c r="F6">
-        <v>0.08179</v>
+        <v>0.07385</v>
       </c>
       <c r="G6">
-        <v>0.02293</v>
+        <v>0.02287</v>
       </c>
       <c r="H6">
-        <v>0.00822</v>
+        <v>0.00814</v>
       </c>
       <c r="I6">
         <v>0.0006400000000000001</v>
@@ -14468,25 +14468,25 @@
         <v>252</v>
       </c>
       <c r="B7">
-        <v>0.01674</v>
+        <v>0.01629</v>
       </c>
       <c r="C7">
         <v>0.06507</v>
       </c>
       <c r="D7">
-        <v>0.00149</v>
+        <v>0.00144</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0005</v>
+        <v>0.00045</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00385</v>
+        <v>0.00382</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -14518,28 +14518,28 @@
         <v>253</v>
       </c>
       <c r="B8">
-        <v>0.00779</v>
+        <v>0.00758</v>
       </c>
       <c r="C8">
         <v>0.02849</v>
       </c>
       <c r="D8">
-        <v>0.00126</v>
+        <v>0.00122</v>
       </c>
       <c r="E8">
-        <v>0.00209</v>
+        <v>0.00207</v>
       </c>
       <c r="F8">
-        <v>0.00019</v>
+        <v>0.00017</v>
       </c>
       <c r="G8">
-        <v>0.00268</v>
+        <v>0.00267</v>
       </c>
       <c r="H8">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="I8">
-        <v>0.07929</v>
+        <v>0.07931000000000001</v>
       </c>
       <c r="J8">
         <v>0.01357</v>
@@ -14568,25 +14568,25 @@
         <v>254</v>
       </c>
       <c r="B9">
-        <v>0.00716</v>
+        <v>0.00697</v>
       </c>
       <c r="C9">
         <v>0.0005</v>
       </c>
       <c r="D9">
-        <v>0.00925</v>
+        <v>0.00894</v>
       </c>
       <c r="E9">
-        <v>0.00961</v>
+        <v>0.0095</v>
       </c>
       <c r="F9">
-        <v>0.00208</v>
+        <v>0.00188</v>
       </c>
       <c r="G9">
-        <v>0.00386</v>
+        <v>0.00385</v>
       </c>
       <c r="H9">
-        <v>0.01736</v>
+        <v>0.01722</v>
       </c>
       <c r="I9">
         <v>0.00192</v>
@@ -14618,25 +14618,25 @@
         <v>255</v>
       </c>
       <c r="B10">
-        <v>0.00634</v>
+        <v>0.00617</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008330000000000001</v>
+        <v>0.00805</v>
       </c>
       <c r="E10">
-        <v>0.00147</v>
+        <v>0.00146</v>
       </c>
       <c r="F10">
-        <v>0.01906</v>
+        <v>0.01721</v>
       </c>
       <c r="G10">
-        <v>0.00205</v>
+        <v>0.00204</v>
       </c>
       <c r="H10">
-        <v>0.00695</v>
+        <v>0.00688</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -14668,13 +14668,13 @@
         <v>256</v>
       </c>
       <c r="B11">
-        <v>0.00324</v>
+        <v>0.00315</v>
       </c>
       <c r="C11">
         <v>6E-05</v>
       </c>
       <c r="D11">
-        <v>0.00424</v>
+        <v>0.00409</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01203</v>
+        <v>0.01191</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -14718,7 +14718,7 @@
         <v>257</v>
       </c>
       <c r="B12">
-        <v>0.00242</v>
+        <v>0.00236</v>
       </c>
       <c r="C12">
         <v>0.00962</v>
@@ -14736,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.00044</v>
+        <v>0.00043</v>
       </c>
       <c r="I12">
         <v>0.00065</v>
@@ -14768,22 +14768,22 @@
         <v>258</v>
       </c>
       <c r="B13">
-        <v>0.00161</v>
+        <v>0.00157</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.00212</v>
+        <v>0.00205</v>
       </c>
       <c r="E13">
-        <v>0.00893</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="F13">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="G13">
-        <v>0.00122</v>
+        <v>0.00121</v>
       </c>
       <c r="H13">
         <v>0.0004</v>
@@ -14818,13 +14818,13 @@
         <v>259</v>
       </c>
       <c r="B14">
-        <v>0.00103</v>
+        <v>0.00101</v>
       </c>
       <c r="C14">
         <v>0.00151</v>
       </c>
       <c r="D14">
-        <v>0.00088</v>
+        <v>0.00085</v>
       </c>
       <c r="E14">
         <v>6.999999999999999E-05</v>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.00247</v>
+        <v>0.00244</v>
       </c>
       <c r="I14">
         <v>0.00638</v>
@@ -14868,22 +14868,22 @@
         <v>260</v>
       </c>
       <c r="B15">
-        <v>0.00102</v>
+        <v>0.00099</v>
       </c>
       <c r="C15">
         <v>0.00311</v>
       </c>
       <c r="D15">
-        <v>0.00036</v>
+        <v>0.00035</v>
       </c>
       <c r="E15">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00152</v>
+        <v>0.00151</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -14918,7 +14918,7 @@
         <v>261</v>
       </c>
       <c r="B16">
-        <v>0.00096</v>
+        <v>0.00094</v>
       </c>
       <c r="C16">
         <v>0.00389</v>
@@ -14951,7 +14951,7 @@
         <v>0.00208</v>
       </c>
       <c r="M16">
-        <v>0.02108</v>
+        <v>0.02107</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -14968,25 +14968,25 @@
         <v>262</v>
       </c>
       <c r="B17">
-        <v>0.00091</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="C17">
         <v>0.00014</v>
       </c>
       <c r="D17">
-        <v>0.00115</v>
+        <v>0.00111</v>
       </c>
       <c r="E17">
         <v>0.00039</v>
       </c>
       <c r="F17">
-        <v>0.00051</v>
+        <v>0.00046</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.00266</v>
+        <v>0.00263</v>
       </c>
       <c r="I17">
         <v>0.00027</v>
@@ -15018,13 +15018,13 @@
         <v>263</v>
       </c>
       <c r="B18">
-        <v>0.0009</v>
+        <v>0.00088</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00119</v>
+        <v>0.00115</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.00337</v>
+        <v>0.00334</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -15068,19 +15068,19 @@
         <v>264</v>
       </c>
       <c r="B19">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C19">
         <v>0.0018</v>
       </c>
       <c r="D19">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0008</v>
+        <v>0.00072</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -15118,25 +15118,25 @@
         <v>265</v>
       </c>
       <c r="B20">
-        <v>0.00053</v>
+        <v>0.00052</v>
       </c>
       <c r="C20">
         <v>0.00016</v>
       </c>
       <c r="D20">
-        <v>0.00065</v>
+        <v>0.00063</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.00138</v>
+        <v>0.00125</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.00077</v>
+        <v>0.00076</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -15168,16 +15168,16 @@
         <v>266</v>
       </c>
       <c r="B21">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="E21">
-        <v>0.00085</v>
+        <v>0.00084</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -15218,16 +15218,16 @@
         <v>267</v>
       </c>
       <c r="B22">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="E22">
-        <v>0.00209</v>
+        <v>0.00206</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -15318,7 +15318,7 @@
         <v>269</v>
       </c>
       <c r="B24">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="C24">
         <v>0.00092</v>
@@ -15418,13 +15418,13 @@
         <v>271</v>
       </c>
       <c r="B26">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="C26">
         <v>0.00024</v>
       </c>
       <c r="D26">
-        <v>0.00015</v>
+        <v>0.00014</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -15468,13 +15468,13 @@
         <v>272</v>
       </c>
       <c r="B27">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -15486,7 +15486,7 @@
         <v>4E-05</v>
       </c>
       <c r="H27">
-        <v>0.00057</v>
+        <v>0.00056</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -15524,13 +15524,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.00021</v>
+        <v>0.0002</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.00077</v>
+        <v>0.00069</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -15568,19 +15568,19 @@
         <v>274</v>
       </c>
       <c r="B29">
-        <v>0.00013</v>
+        <v>0.00012</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="E29">
         <v>0.00025</v>
       </c>
       <c r="F29">
-        <v>0.00026</v>
+        <v>0.00023</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -15618,7 +15618,7 @@
         <v>275</v>
       </c>
       <c r="B30">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="C30">
         <v>0.00033</v>
@@ -15680,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.00044</v>
+        <v>0.00039</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -15768,7 +15768,7 @@
         <v>278</v>
       </c>
       <c r="B33">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C33">
         <v>0.00015</v>
@@ -15930,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="G36">
         <v>0</v>
